--- a/vco/current-capacitance-calc.xlsx
+++ b/vco/current-capacitance-calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjk/projects/synthesizer/vco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0A7CDE-C488-3248-A708-5C8C20E6A972}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9477395B-431A-574A-BD24-BF8FD3FE8BA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{92B60CF5-5B90-0E48-AB3B-ECDA0BA97871}"/>
+    <workbookView xWindow="17880" yWindow="1380" windowWidth="32660" windowHeight="16820" xr2:uid="{92B60CF5-5B90-0E48-AB3B-ECDA0BA97871}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>I (mA)</t>
   </si>
@@ -50,12 +50,6 @@
     <t>period (ms)</t>
   </si>
   <si>
-    <t>Higher current = higher frequency</t>
-  </si>
-  <si>
-    <t>Lower capacitance = higher frequency</t>
-  </si>
-  <si>
     <t>Pitch</t>
   </si>
   <si>
@@ -89,35 +83,90 @@
     <t>A9</t>
   </si>
   <si>
-    <t>CV</t>
-  </si>
-  <si>
     <t>I (uA)</t>
   </si>
   <si>
-    <t>Freq</t>
-  </si>
-  <si>
-    <t>I scale</t>
-  </si>
-  <si>
-    <t>To correct for available capacitance values</t>
-  </si>
-  <si>
     <t>A-1</t>
+  </si>
+  <si>
+    <t>R ref (kohm)</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>Vref</t>
+  </si>
+  <si>
+    <t>Vrail</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>cv</t>
+  </si>
+  <si>
+    <t>Iabc (uA)</t>
+  </si>
+  <si>
+    <t>R max (kohm)</t>
+  </si>
+  <si>
+    <t>gain</t>
+  </si>
+  <si>
+    <t>decades</t>
+  </si>
+  <si>
+    <t>sim measure</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>iabc</t>
+  </si>
+  <si>
+    <t>i-error</t>
+  </si>
+  <si>
+    <t>f-error</t>
+  </si>
+  <si>
+    <t>Vin</t>
+  </si>
+  <si>
+    <t>in-gain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,14 +186,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -456,15 +511,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615EEAF9-148B-2D4F-BA31-B8EEB59C579B}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -493,7 +571,7 @@
         <v>348.43205574912889</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -507,11 +585,8 @@
         <f t="shared" ref="D3:D5" si="0">1/(C3/1000)</f>
         <v>174.5200698080279</v>
       </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -525,11 +600,8 @@
         <f t="shared" si="0"/>
         <v>347.22222222222223</v>
       </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -544,328 +616,893 @@
         <v>694.44444444444446</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G6" t="s">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="Q8" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>10.36</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <f>(C9/(B9+C9))*A9</f>
+        <v>4.1440000000000001</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:G11" si="1">G10/2</f>
+        <v>13.75</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:H13" si="2">LOG10(G9/G$14)</f>
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="I9">
+        <f>1/G9</f>
+        <v>7.2727272727272724E-2</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <f>(2*D9)*(J9/1000)/I9</f>
+        <v>1.1396000000000002</v>
+      </c>
+      <c r="L9">
+        <f>1</f>
         <v>1</v>
       </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8">
-        <f t="shared" ref="B8:B12" si="1">B9/2</f>
-        <v>13.75</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ref="D8:D16" si="2">D9/2</f>
-        <v>0.9765625</v>
-      </c>
-      <c r="E8">
-        <v>4.7</v>
-      </c>
-      <c r="F8">
-        <f>(B$5/E8)*D$5*(D8/(A$5*1000))</f>
-        <v>11.543291962174941</v>
-      </c>
-      <c r="G8">
-        <f>B8/F8</f>
-        <v>1.191168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+      <c r="M9">
+        <f>K9*L9</f>
+        <v>1.1396000000000002</v>
+      </c>
+      <c r="N9">
+        <f>LN(M9/M$14)*-0.026</f>
+        <v>9.0109133472792882E-2</v>
+      </c>
+      <c r="O9">
+        <f>N9/E9</f>
+        <v>1.8021826694558575E-2</v>
+      </c>
+      <c r="R9" s="1">
+        <v>7.6162800000000003E-2</v>
+      </c>
+      <c r="S9">
+        <f>1/R9</f>
+        <v>13.129769388730455</v>
+      </c>
+      <c r="T9" s="4">
+        <f>(S9-G9)/S9</f>
+        <v>-4.7238500000000072E-2</v>
+      </c>
+      <c r="U9" s="3">
+        <v>1.122E-6</v>
+      </c>
+      <c r="V9" s="4">
+        <f>(U9-(M9/1000/1000))/U9</f>
+        <v>-1.5686274509803966E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10.36</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:D19" si="3">(C10/(B10+C10))*A10</f>
+        <v>4.1440000000000001</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
-      <c r="C9">
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>-1.2041199826559248</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ref="I10:I19" si="4">1/G10</f>
+        <v>3.6363636363636362E-2</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <f>(2*D10)*(J10/1000)/I10</f>
+        <v>2.2792000000000003</v>
+      </c>
+      <c r="L10">
+        <f>1</f>
         <v>1</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="2"/>
-        <v>1.953125</v>
-      </c>
-      <c r="E9">
-        <v>4.7</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ref="F9:F18" si="3">(B$5/E9)*D$5*(D9/(A$5*1000))</f>
-        <v>23.086583924349881</v>
-      </c>
-      <c r="G9">
-        <f t="shared" ref="G9:G18" si="4">B9/F9</f>
-        <v>1.191168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+      <c r="M10">
+        <f t="shared" ref="M10:M19" si="5">K10*L10</f>
+        <v>2.2792000000000003</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ref="N10:N19" si="6">LN(M10/M$14)*-0.026</f>
+        <v>7.20873067782343E-2</v>
+      </c>
+      <c r="O10">
+        <f t="shared" ref="O10:O19" si="7">N10/E10</f>
+        <v>1.8021826694558575E-2</v>
+      </c>
+      <c r="R10" s="1">
+        <v>3.76014E-2</v>
+      </c>
+      <c r="S10">
+        <f t="shared" ref="S10:S19" si="8">1/R10</f>
+        <v>26.594754450632156</v>
+      </c>
+      <c r="T10" s="4">
+        <f>(S10-G10)/S10</f>
+        <v>-3.4038500000000069E-2</v>
+      </c>
+      <c r="U10" s="3">
+        <v>2.25127E-6</v>
+      </c>
+      <c r="V10" s="4">
+        <f>(U10-(M10/1000/1000))/U10</f>
+        <v>-1.2406330648922685E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10.36</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>4.1440000000000001</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="C10">
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>1.8181818181818181E-2</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <f>(2*D11)*(J11/1000)/I11</f>
+        <v>4.5584000000000007</v>
+      </c>
+      <c r="L11">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>4.5584000000000007</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="6"/>
+        <v>5.4065480083675725E-2</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="7"/>
+        <v>1.8021826694558575E-2</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1.8622699999999999E-2</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="8"/>
+        <v>53.69790631863264</v>
+      </c>
+      <c r="T11" s="4">
+        <f>(S11-G11)/S11</f>
+        <v>-2.4248499999999933E-2</v>
+      </c>
+      <c r="U11" s="3">
+        <v>4.5171499999999996E-6</v>
+      </c>
+      <c r="V11" s="4">
+        <f>(U11-(M11/1000/1000))/U11</f>
+        <v>-9.1318641178620742E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10.36</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>4.1440000000000001</v>
+      </c>
+      <c r="E12">
         <v>2</v>
       </c>
-      <c r="D10">
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <f>G13/2</f>
+        <v>110</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="2"/>
-        <v>3.90625</v>
-      </c>
-      <c r="E10">
-        <v>4.7</v>
-      </c>
-      <c r="F10">
+        <v>-0.6020599913279624</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090905E-3</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <f>(2*D12)*(J12/1000)/I12</f>
+        <v>9.1168000000000013</v>
+      </c>
+      <c r="L12">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>9.1168000000000013</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="6"/>
+        <v>3.604365338911715E-2</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="7"/>
+        <v>1.8021826694558575E-2</v>
+      </c>
+      <c r="R12" s="1">
+        <v>9.24525E-3</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="8"/>
+        <v>108.16365160487818</v>
+      </c>
+      <c r="T12" s="4">
+        <f>(S12-G12)/S12</f>
+        <v>-1.6977499999999979E-2</v>
+      </c>
+      <c r="U12" s="3">
+        <v>9.0636000000000008E-6</v>
+      </c>
+      <c r="V12" s="4">
+        <f>(U12-(M12/1000/1000))/U12</f>
+        <v>-5.8696323756564457E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10.36</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="3"/>
-        <v>46.173167848699762</v>
-      </c>
-      <c r="G10">
+        <v>4.1440000000000001</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <f>G14/2</f>
+        <v>220</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>-0.3010299956639812</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="4"/>
-        <v>1.191168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <f>B12/2</f>
-        <v>110</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="2"/>
-        <v>7.8125</v>
-      </c>
-      <c r="E11">
-        <v>4.7</v>
-      </c>
-      <c r="F11">
+        <v>4.5454545454545452E-3</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <f>(2*D13)*(J13/1000)/I13</f>
+        <v>18.233600000000003</v>
+      </c>
+      <c r="L13">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>18.233600000000003</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="6"/>
+        <v>1.8021826694558575E-2</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="7"/>
+        <v>1.8021826694558575E-2</v>
+      </c>
+      <c r="R13" s="1">
+        <v>4.5992200000000002E-3</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="8"/>
+        <v>217.42817260318054</v>
+      </c>
+      <c r="T13" s="4">
+        <f>(S13-G13)/S13</f>
+        <v>-1.1828399999999987E-2</v>
+      </c>
+      <c r="U13" s="3">
+        <v>1.8185999999999998E-5</v>
+      </c>
+      <c r="V13" s="4">
+        <f>(U13-(M13/1000/1000))/U13</f>
+        <v>-2.6173979984605044E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10.36</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="3"/>
-        <v>92.346335697399525</v>
-      </c>
-      <c r="G11">
+        <v>4.1440000000000001</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>440</v>
+      </c>
+      <c r="H14">
+        <f>LOG10(G14/G$14)</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="4"/>
-        <v>1.191168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+        <v>2.2727272727272726E-3</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <f>(2*D14)*(J14/1000)/I14</f>
+        <v>36.467200000000005</v>
+      </c>
+      <c r="L14">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>36.467200000000005</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f>12/M14*1000</f>
+        <v>329.062829062829</v>
+      </c>
+      <c r="R14" s="1">
+        <v>2.2935899999999999E-3</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="8"/>
+        <v>435.99771537197148</v>
+      </c>
+      <c r="T14" s="4">
+        <f>(S14-G14)/S14</f>
+        <v>-9.1795999999999319E-3</v>
+      </c>
+      <c r="U14" s="3">
+        <v>3.6490099999999998E-5</v>
+      </c>
+      <c r="V14" s="4">
+        <f>(U14-(M14/1000/1000))/U14</f>
+        <v>6.2756747720603683E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>10.36</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>4.1440000000000001</v>
+      </c>
+      <c r="E15">
+        <v>-1</v>
+      </c>
+      <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <f>B13/2</f>
-        <v>220</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="2"/>
-        <v>15.625</v>
-      </c>
-      <c r="E12">
-        <v>4.7</v>
-      </c>
-      <c r="F12">
+      <c r="G15">
+        <f>G14*2</f>
+        <v>880</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:H19" si="9">LOG10(G15/G$14)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>1.1363636363636363E-3</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <f>(2*D15)*(J15/1000)/I15</f>
+        <v>72.934400000000011</v>
+      </c>
+      <c r="L15">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>72.934400000000011</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="6"/>
+        <v>-1.8021826694558575E-2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="7"/>
+        <v>1.8021826694558575E-2</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1.1472399999999999E-3</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="8"/>
+        <v>871.65719465848474</v>
+      </c>
+      <c r="T15" s="4">
+        <f>(S15-G15)/S15</f>
+        <v>-9.5711999999999655E-3</v>
+      </c>
+      <c r="U15" s="3">
+        <v>7.3217000000000001E-5</v>
+      </c>
+      <c r="V15" s="4">
+        <f>(U15-(M15/1000/1000))/U15</f>
+        <v>3.8597593455071398E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>10.36</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="3"/>
-        <v>184.69267139479905</v>
-      </c>
-      <c r="G12">
+        <v>4.1440000000000001</v>
+      </c>
+      <c r="E16">
+        <v>-2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G18" si="10">G15*2</f>
+        <v>1760</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="9"/>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="4"/>
-        <v>1.191168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>440</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>31.25</v>
-      </c>
-      <c r="E13">
-        <v>4.7</v>
-      </c>
-      <c r="F13">
+        <v>5.6818181818181815E-4</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <f>(2*D16)*(J16/1000)/I16</f>
+        <v>145.86880000000002</v>
+      </c>
+      <c r="L16">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>145.86880000000002</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="6"/>
+        <v>-3.604365338911715E-2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="7"/>
+        <v>1.8021826694558575E-2</v>
+      </c>
+      <c r="R16" s="1">
+        <v>5.7706200000000004E-4</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="8"/>
+        <v>1732.9160471491798</v>
+      </c>
+      <c r="T16" s="4">
+        <f>(S16-G16)/S16</f>
+        <v>-1.5629120000000003E-2</v>
+      </c>
+      <c r="U16" s="1">
+        <v>1.46909E-4</v>
+      </c>
+      <c r="V16" s="4">
+        <f>(U16-(M16/1000/1000))/U16</f>
+        <v>7.0805736884737526E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>10.36</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="3"/>
-        <v>369.3853427895981</v>
-      </c>
-      <c r="G13">
+        <v>4.1440000000000001</v>
+      </c>
+      <c r="E17">
+        <v>-3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="10"/>
+        <v>3520</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="9"/>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="4"/>
-        <v>1.191168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <f>B13*2</f>
-        <v>880</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="2"/>
-        <v>62.5</v>
-      </c>
-      <c r="E14">
-        <v>4.7</v>
-      </c>
-      <c r="F14">
+        <v>2.8409090909090908E-4</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <f>(2*D17)*(J17/1000)/I17</f>
+        <v>291.73760000000004</v>
+      </c>
+      <c r="L17">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>291.73760000000004</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>-5.4065480083675725E-2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="7"/>
+        <v>1.8021826694558575E-2</v>
+      </c>
+      <c r="R17" s="1">
+        <v>2.9286999999999998E-4</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="8"/>
+        <v>3414.4842421552225</v>
+      </c>
+      <c r="T17" s="4">
+        <f>(S17-G17)/S17</f>
+        <v>-3.0902399999999972E-2</v>
+      </c>
+      <c r="U17" s="1">
+        <v>2.94772E-4</v>
+      </c>
+      <c r="V17" s="4">
+        <f>(U17-(M17/1000/1000))/U17</f>
+        <v>1.029405778025045E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>10.36</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
         <f t="shared" si="3"/>
-        <v>738.7706855791962</v>
-      </c>
-      <c r="G14">
+        <v>4.1440000000000001</v>
+      </c>
+      <c r="E18">
+        <v>-4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="10"/>
+        <v>7040</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="9"/>
+        <v>1.2041199826559248</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="4"/>
-        <v>1.191168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <f t="shared" ref="B14:B17" si="5">B14*2</f>
-        <v>1760</v>
-      </c>
-      <c r="C15">
-        <v>7</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-      <c r="E15">
-        <v>4.7</v>
-      </c>
-      <c r="F15">
+        <v>1.4204545454545454E-4</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <f>(2*D18)*(J18/1000)/I18</f>
+        <v>583.47520000000009</v>
+      </c>
+      <c r="L18">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>583.47520000000009</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="6"/>
+        <v>-7.20873067782343E-2</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="7"/>
+        <v>1.8021826694558575E-2</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1.5093600000000001E-4</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="8"/>
+        <v>6625.3246409074045</v>
+      </c>
+      <c r="T18" s="4">
+        <f>(S18-G18)/S18</f>
+        <v>-6.2589439999999996E-2</v>
+      </c>
+      <c r="U18" s="1">
+        <v>5.9145699999999999E-4</v>
+      </c>
+      <c r="V18" s="4">
+        <f>(U18-(M18/1000/1000))/U18</f>
+        <v>1.3495148421609603E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>10.36</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
         <f t="shared" si="3"/>
-        <v>1477.5413711583924</v>
-      </c>
-      <c r="G15">
+        <v>4.1440000000000001</v>
+      </c>
+      <c r="E19">
+        <v>-5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <f>G18*2</f>
+        <v>14080</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="9"/>
+        <v>1.505149978319906</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="4"/>
-        <v>1.191168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+        <v>7.1022727272727269E-5</v>
+      </c>
+      <c r="J19">
+        <v>10</v>
+      </c>
+      <c r="K19">
+        <f>(2*D19)*(J19/1000)/I19</f>
+        <v>1166.9504000000002</v>
+      </c>
+      <c r="L19">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="5"/>
-        <v>3520</v>
-      </c>
-      <c r="C16">
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="E16">
-        <v>4.7</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="3"/>
-        <v>2955.0827423167848</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="4"/>
-        <v>1.191168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="5"/>
-        <v>7040</v>
-      </c>
-      <c r="C17">
-        <v>9</v>
-      </c>
-      <c r="D17">
-        <f>D18/2</f>
-        <v>500</v>
-      </c>
-      <c r="E17">
-        <v>4.7</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="3"/>
-        <v>5910.1654846335696</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="4"/>
-        <v>1.191168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <f>B17*2</f>
-        <v>14080</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>1000</v>
-      </c>
-      <c r="E18">
-        <v>4.7</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="3"/>
-        <v>11820.330969267139</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="4"/>
-        <v>1.191168</v>
-      </c>
+        <v>1166.9504000000002</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="6"/>
+        <v>-9.0109133472792882E-2</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="7"/>
+        <v>1.8021826694558575E-2</v>
+      </c>
+      <c r="Q19">
+        <f>(A19-0.6)/2</f>
+        <v>4.88</v>
+      </c>
+      <c r="R19" s="3">
+        <v>7.9742500000000004E-5</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="8"/>
+        <v>12540.364297582844</v>
+      </c>
+      <c r="T19" s="4">
+        <f>(S19-G19)/S19</f>
+        <v>-0.12277440000000005</v>
+      </c>
+      <c r="U19" s="1">
+        <v>1.1867500000000001E-3</v>
+      </c>
+      <c r="V19" s="4">
+        <f>(U19-(M19/1000/1000))/U19</f>
+        <v>1.6683884558668649E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vco/current-capacitance-calc.xlsx
+++ b/vco/current-capacitance-calc.xlsx
@@ -8,13 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjk/projects/synthesizer/vco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9477395B-431A-574A-BD24-BF8FD3FE8BA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E258DEEA-2DE0-2040-846B-DCE0DB4F066B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17880" yWindow="1380" windowWidth="32660" windowHeight="16820" xr2:uid="{92B60CF5-5B90-0E48-AB3B-ECDA0BA97871}"/>
+    <workbookView xWindow="17980" yWindow="2540" windowWidth="32660" windowHeight="16820" xr2:uid="{92B60CF5-5B90-0E48-AB3B-ECDA0BA97871}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$9:$E$19</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$T$8</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$T$8</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$T$9:$T$19</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$E$9:$E$19</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$T$8</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$T$9:$T$19</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$T$9:$T$19</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$E$9:$E$19</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$T$8</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$T$9:$T$19</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$E$9:$E$19</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$T$8</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$T$9:$T$19</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$E$9:$E$19</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>I (mA)</t>
   </si>
@@ -142,11 +161,42 @@
   <si>
     <t>in-gain</t>
   </si>
+  <si>
+    <t>iout</t>
+  </si>
+  <si>
+    <t>i-err</t>
+  </si>
+  <si>
+    <t>gain err</t>
+  </si>
+  <si>
+    <t>compensation gain</t>
+  </si>
+  <si>
+    <t>current gain</t>
+  </si>
+  <si>
+    <t>period @ CV=5V</t>
+  </si>
+  <si>
+    <t>err</t>
+  </si>
+  <si>
+    <t>RA (Kohm)</t>
+  </si>
+  <si>
+    <t>RREF (kohm)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="174" formatCode="0.000%"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -190,18 +240,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -212,6 +276,969 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f-error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$9:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$9:$T$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-0.14023782400000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.4451839999999977E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.7495359999999936E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.7060000000000141E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.8047999999998844E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.3999999999904941E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6299999999999418E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0678000000000571E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3045000000000261E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.7682499999999856E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9.9416249999999002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE3C-6446-8277-043D8F82D81E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="684380160"/>
+        <c:axId val="684365680"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="684380160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="684365680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="684365680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="684380160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69112BE-030A-7D48-B3FA-BAFF0E4F2E4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -511,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615EEAF9-148B-2D4F-BA31-B8EEB59C579B}">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -530,19 +1557,19 @@
     <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" customWidth="1"/>
     <col min="13" max="13" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +1583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -571,7 +1598,7 @@
         <v>348.43205574912889</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -586,7 +1613,7 @@
         <v>174.5200698080279</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -601,7 +1628,7 @@
         <v>347.22222222222223</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -616,7 +1643,7 @@
         <v>694.44444444444446</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -671,7 +1698,7 @@
       <c r="R8" t="s">
         <v>29</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="T8" s="4" t="s">
@@ -683,10 +1710,25 @@
       <c r="V8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>10.36</v>
+        <v>10.47</v>
       </c>
       <c r="B9">
         <v>15</v>
@@ -696,71 +1738,93 @@
       </c>
       <c r="D9">
         <f>(C9/(B9+C9))*A9</f>
-        <v>4.1440000000000001</v>
+        <v>4.1880000000000006</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:G11" si="1">G10/2</f>
-        <v>13.75</v>
+        <f>G10*2</f>
+        <v>14080</v>
       </c>
       <c r="H9">
-        <f t="shared" ref="H9:H13" si="2">LOG10(G9/G$14)</f>
-        <v>-1.505149978319906</v>
+        <f>LOG10(G9/G$14)</f>
+        <v>1.505149978319906</v>
       </c>
       <c r="I9">
         <f>1/G9</f>
-        <v>7.2727272727272724E-2</v>
+        <v>7.1022727272727269E-5</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>4.7</v>
       </c>
       <c r="K9">
-        <f>(2*D9)*(J9/1000)/I9</f>
-        <v>1.1396000000000002</v>
+        <f>2*(2*D9)*(J9/1000)/I9</f>
+        <v>1108.5803520000002</v>
       </c>
       <c r="L9">
-        <f>1</f>
-        <v>1</v>
+        <v>0.93540000000000001</v>
       </c>
       <c r="M9">
-        <f>K9*L9</f>
-        <v>1.1396000000000002</v>
+        <f>K9/L9</f>
+        <v>1185.1404233483004</v>
       </c>
       <c r="N9">
         <f>LN(M9/M$14)*-0.026</f>
-        <v>9.0109133472792882E-2</v>
+        <v>-9.0109133472792882E-2</v>
       </c>
       <c r="O9">
         <f>N9/E9</f>
         <v>1.8021826694558575E-2</v>
       </c>
-      <c r="R9" s="1">
-        <v>7.6162800000000003E-2</v>
-      </c>
-      <c r="S9">
+      <c r="Q9">
+        <f>(A9-0.6)/2</f>
+        <v>4.9350000000000005</v>
+      </c>
+      <c r="R9" s="3">
+        <v>8.0982800000000007E-5</v>
+      </c>
+      <c r="S9" s="6">
         <f>1/R9</f>
-        <v>13.129769388730455</v>
+        <v>12348.301120731809</v>
       </c>
       <c r="T9" s="4">
         <f>(S9-G9)/S9</f>
-        <v>-4.7238500000000072E-2</v>
-      </c>
-      <c r="U9" s="3">
-        <v>1.122E-6</v>
+        <v>-0.14023782400000009</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1.16632E-3</v>
       </c>
       <c r="V9" s="4">
         <f>(U9-(M9/1000/1000))/U9</f>
-        <v>-1.5686274509803966E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+        <v>-1.613658631276179E-2</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1.0755300000000001E-3</v>
+      </c>
+      <c r="X9" s="4">
+        <f>(W9-(K9/1000/1000))/W9</f>
+        <v>-3.0729363197679351E-2</v>
+      </c>
+      <c r="Y9">
+        <f>W9/U9</f>
+        <v>0.92215686946978537</v>
+      </c>
+      <c r="Z9" s="4">
+        <f>(Y9-L9)/Y9</f>
+        <v>-1.4361038743689103E-2</v>
+      </c>
+      <c r="AA9">
+        <f>O9*(1+T9)</f>
+        <v>1.5494484934408567E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>10.36</v>
+        <v>10.47</v>
       </c>
       <c r="B10">
         <v>15</v>
@@ -769,72 +1833,90 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:D19" si="3">(C10/(B10+C10))*A10</f>
-        <v>4.1440000000000001</v>
+        <f>(C10/(B10+C10))*A10</f>
+        <v>4.1880000000000006</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
-        <v>27.5</v>
+        <f>G11*2</f>
+        <v>7040</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
-        <v>-1.2041199826559248</v>
+        <f>LOG10(G10/G$14)</f>
+        <v>1.2041199826559248</v>
       </c>
       <c r="I10">
-        <f t="shared" ref="I10:I19" si="4">1/G10</f>
-        <v>3.6363636363636362E-2</v>
+        <f>1/G10</f>
+        <v>1.4204545454545454E-4</v>
       </c>
       <c r="J10">
-        <v>10</v>
+        <v>4.7</v>
       </c>
       <c r="K10">
-        <f>(2*D10)*(J10/1000)/I10</f>
-        <v>2.2792000000000003</v>
+        <f>2*(2*D10)*(J10/1000)/I10</f>
+        <v>554.29017600000009</v>
       </c>
       <c r="L10">
-        <f>1</f>
-        <v>1</v>
+        <v>0.93540000000000001</v>
       </c>
       <c r="M10">
-        <f t="shared" ref="M10:M19" si="5">K10*L10</f>
-        <v>2.2792000000000003</v>
+        <f>K10/L10</f>
+        <v>592.57021167415019</v>
       </c>
       <c r="N10">
-        <f t="shared" ref="N10:N19" si="6">LN(M10/M$14)*-0.026</f>
-        <v>7.20873067782343E-2</v>
+        <f>LN(M10/M$14)*-0.026</f>
+        <v>-7.20873067782343E-2</v>
       </c>
       <c r="O10">
-        <f t="shared" ref="O10:O19" si="7">N10/E10</f>
+        <f>N10/E10</f>
         <v>1.8021826694558575E-2</v>
       </c>
       <c r="R10" s="1">
-        <v>3.76014E-2</v>
-      </c>
-      <c r="S10">
-        <f t="shared" ref="S10:S19" si="8">1/R10</f>
-        <v>26.594754450632156</v>
+        <v>1.52621E-4</v>
+      </c>
+      <c r="S10" s="6">
+        <f t="shared" ref="S10:S19" si="1">1/R10</f>
+        <v>6552.1782716664156</v>
       </c>
       <c r="T10" s="4">
         <f>(S10-G10)/S10</f>
-        <v>-3.4038500000000069E-2</v>
-      </c>
-      <c r="U10" s="3">
-        <v>2.25127E-6</v>
+        <v>-7.4451839999999977E-2</v>
+      </c>
+      <c r="U10" s="1">
+        <v>5.8436399999999998E-4</v>
       </c>
       <c r="V10" s="4">
-        <f>(U10-(M10/1000/1000))/U10</f>
-        <v>-1.2406330648922685E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+        <f t="shared" ref="V10:V19" si="2">(U10-(M10/1000/1000))/U10</f>
+        <v>-1.4042979502758866E-2</v>
+      </c>
+      <c r="W10" s="1">
+        <v>5.4532599999999995E-4</v>
+      </c>
+      <c r="X10" s="4">
+        <f t="shared" ref="X10:X19" si="3">(W10-(K10/1000/1000))/W10</f>
+        <v>-1.6438196601666052E-2</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" ref="Y10:Y19" si="4">W10/U10</f>
+        <v>0.93319574785578852</v>
+      </c>
+      <c r="Z10" s="4">
+        <f t="shared" ref="Z10:Z19" si="5">(Y10-L10)/Y10</f>
+        <v>-2.3620469223913868E-3</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" ref="AA10:AA19" si="6">O10*(1+T10)</f>
+        <v>1.6680068536987572E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10.36</v>
+        <v>10.47</v>
       </c>
       <c r="B11">
         <v>15</v>
@@ -843,72 +1925,90 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <f t="shared" si="3"/>
-        <v>4.1440000000000001</v>
+        <f>(C11/(B11+C11))*A11</f>
+        <v>4.1880000000000006</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G11">
+        <f>G12*2</f>
+        <v>3520</v>
+      </c>
+      <c r="H11">
+        <f>LOG10(G11/G$14)</f>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="I11">
+        <f>1/G11</f>
+        <v>2.8409090909090908E-4</v>
+      </c>
+      <c r="J11">
+        <v>4.7</v>
+      </c>
+      <c r="K11">
+        <f>2*(2*D11)*(J11/1000)/I11</f>
+        <v>277.14508800000004</v>
+      </c>
+      <c r="L11">
+        <v>0.93540000000000001</v>
+      </c>
+      <c r="M11">
+        <f>K11/L11</f>
+        <v>296.28510583707509</v>
+      </c>
+      <c r="N11">
+        <f>LN(M11/M$14)*-0.026</f>
+        <v>-5.4065480083675725E-2</v>
+      </c>
+      <c r="O11">
+        <f>N11/E11</f>
+        <v>1.8021826694558575E-2</v>
+      </c>
+      <c r="R11" s="1">
+        <v>2.9474299999999998E-4</v>
+      </c>
+      <c r="S11" s="6">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
-        <v>-0.90308998699194354</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="4"/>
-        <v>1.8181818181818181E-2</v>
-      </c>
-      <c r="J11">
-        <v>10</v>
-      </c>
-      <c r="K11">
-        <f>(2*D11)*(J11/1000)/I11</f>
-        <v>4.5584000000000007</v>
-      </c>
-      <c r="L11">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="5"/>
-        <v>4.5584000000000007</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="6"/>
-        <v>5.4065480083675725E-2</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="7"/>
-        <v>1.8021826694558575E-2</v>
-      </c>
-      <c r="R11" s="1">
-        <v>1.8622699999999999E-2</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="8"/>
-        <v>53.69790631863264</v>
+        <v>3392.7862578585414</v>
       </c>
       <c r="T11" s="4">
         <f>(S11-G11)/S11</f>
-        <v>-2.4248499999999933E-2</v>
-      </c>
-      <c r="U11" s="3">
-        <v>4.5171499999999996E-6</v>
+        <v>-3.7495359999999936E-2</v>
+      </c>
+      <c r="U11" s="1">
+        <v>2.9278699999999997E-4</v>
       </c>
       <c r="V11" s="4">
-        <f>(U11-(M11/1000/1000))/U11</f>
-        <v>-9.1318641178620742E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>-1.1947613237866115E-2</v>
+      </c>
+      <c r="W11" s="1">
+        <v>2.74407E-4</v>
+      </c>
+      <c r="X11" s="4">
+        <f t="shared" si="3"/>
+        <v>-9.9782002645706601E-3</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="4"/>
+        <v>0.93722398876999335</v>
+      </c>
+      <c r="Z11" s="4">
+        <f t="shared" si="5"/>
+        <v>1.9461609944354246E-3</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="6"/>
+        <v>1.7346091814788491E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>10.36</v>
+        <v>10.47</v>
       </c>
       <c r="B12">
         <v>15</v>
@@ -917,72 +2017,90 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <f t="shared" si="3"/>
-        <v>4.1440000000000001</v>
+        <f>(C12/(B12+C12))*A12</f>
+        <v>4.1880000000000006</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G12">
-        <f>G13/2</f>
-        <v>110</v>
+        <f>G13*2</f>
+        <v>1760</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
-        <v>-0.6020599913279624</v>
+        <f>LOG10(G12/G$14)</f>
+        <v>0.6020599913279624</v>
       </c>
       <c r="I12">
-        <f t="shared" si="4"/>
-        <v>9.0909090909090905E-3</v>
+        <f>1/G12</f>
+        <v>5.6818181818181815E-4</v>
       </c>
       <c r="J12">
-        <v>10</v>
+        <v>4.7</v>
       </c>
       <c r="K12">
-        <f>(2*D12)*(J12/1000)/I12</f>
-        <v>9.1168000000000013</v>
+        <f>2*(2*D12)*(J12/1000)/I12</f>
+        <v>138.57254400000002</v>
       </c>
       <c r="L12">
-        <f>1</f>
-        <v>1</v>
+        <v>0.93540000000000001</v>
       </c>
       <c r="M12">
-        <f t="shared" si="5"/>
-        <v>9.1168000000000013</v>
+        <f>K12/L12</f>
+        <v>148.14255291853755</v>
       </c>
       <c r="N12">
-        <f t="shared" si="6"/>
-        <v>3.604365338911715E-2</v>
+        <f>LN(M12/M$14)*-0.026</f>
+        <v>-3.604365338911715E-2</v>
       </c>
       <c r="O12">
-        <f t="shared" si="7"/>
+        <f>N12/E12</f>
         <v>1.8021826694558575E-2</v>
       </c>
       <c r="R12" s="1">
-        <v>9.24525E-3</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="8"/>
-        <v>108.16365160487818</v>
+        <v>5.7787500000000005E-4</v>
+      </c>
+      <c r="S12" s="6">
+        <f t="shared" si="1"/>
+        <v>1730.4780445598094</v>
       </c>
       <c r="T12" s="4">
         <f>(S12-G12)/S12</f>
-        <v>-1.6977499999999979E-2</v>
-      </c>
-      <c r="U12" s="3">
-        <v>9.0636000000000008E-6</v>
+        <v>-1.7060000000000141E-2</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1.4669600000000001E-4</v>
       </c>
       <c r="V12" s="4">
-        <f>(U12-(M12/1000/1000))/U12</f>
-        <v>-5.8696323756564457E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>-9.8608886304843574E-3</v>
+      </c>
+      <c r="W12" s="1">
+        <v>1.3598700000000001E-4</v>
+      </c>
+      <c r="X12" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.9013170376580197E-2</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="4"/>
+        <v>0.92699869117085676</v>
+      </c>
+      <c r="Z12" s="4">
+        <f t="shared" si="5"/>
+        <v>-9.0629133667188642E-3</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="6"/>
+        <v>1.7714374331149401E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>10.36</v>
+        <v>10.47</v>
       </c>
       <c r="B13">
         <v>15</v>
@@ -991,72 +2109,90 @@
         <v>10</v>
       </c>
       <c r="D13">
-        <f t="shared" si="3"/>
-        <v>4.1440000000000001</v>
+        <f>(C13/(B13+C13))*A13</f>
+        <v>4.1880000000000006</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G13">
-        <f>G14/2</f>
-        <v>220</v>
+        <f>G14*2</f>
+        <v>880</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
-        <v>-0.3010299956639812</v>
+        <f>LOG10(G13/G$14)</f>
+        <v>0.3010299956639812</v>
       </c>
       <c r="I13">
-        <f t="shared" si="4"/>
-        <v>4.5454545454545452E-3</v>
+        <f>1/G13</f>
+        <v>1.1363636363636363E-3</v>
       </c>
       <c r="J13">
-        <v>10</v>
+        <v>4.7</v>
       </c>
       <c r="K13">
-        <f>(2*D13)*(J13/1000)/I13</f>
-        <v>18.233600000000003</v>
+        <f>2*(2*D13)*(J13/1000)/I13</f>
+        <v>69.286272000000011</v>
       </c>
       <c r="L13">
-        <f>1</f>
-        <v>1</v>
+        <v>0.93540000000000001</v>
       </c>
       <c r="M13">
-        <f t="shared" si="5"/>
-        <v>18.233600000000003</v>
+        <f>K13/L13</f>
+        <v>74.071276459268773</v>
       </c>
       <c r="N13">
-        <f t="shared" si="6"/>
+        <f>LN(M13/M$14)*-0.026</f>
+        <v>-1.8021826694558575E-2</v>
+      </c>
+      <c r="O13">
+        <f>N13/E13</f>
         <v>1.8021826694558575E-2</v>
       </c>
-      <c r="O13">
-        <f t="shared" si="7"/>
-        <v>1.8021826694558575E-2</v>
-      </c>
       <c r="R13" s="1">
-        <v>4.5992200000000002E-3</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="8"/>
-        <v>217.42817260318054</v>
+        <v>1.1429599999999999E-3</v>
+      </c>
+      <c r="S13" s="6">
+        <f t="shared" si="1"/>
+        <v>874.92125708686228</v>
       </c>
       <c r="T13" s="4">
         <f>(S13-G13)/S13</f>
-        <v>-1.1828399999999987E-2</v>
+        <v>-5.8047999999998844E-3</v>
       </c>
       <c r="U13" s="3">
-        <v>1.8185999999999998E-5</v>
+        <v>7.3499799999999997E-5</v>
       </c>
       <c r="V13" s="4">
-        <f>(U13-(M13/1000/1000))/U13</f>
-        <v>-2.6173979984605044E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>-7.7752110790610682E-3</v>
+      </c>
+      <c r="W13" s="3">
+        <v>6.8626699999999998E-5</v>
+      </c>
+      <c r="X13" s="4">
+        <f t="shared" si="3"/>
+        <v>-9.6110114576398575E-3</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="4"/>
+        <v>0.93369913931738591</v>
+      </c>
+      <c r="Z13" s="4">
+        <f t="shared" si="5"/>
+        <v>-1.8216367681966352E-3</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="6"/>
+        <v>1.7917213594962005E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>10.36</v>
+        <v>10.47</v>
       </c>
       <c r="B14">
         <v>15</v>
@@ -1065,8 +2201,8 @@
         <v>10</v>
       </c>
       <c r="D14">
-        <f t="shared" si="3"/>
-        <v>4.1440000000000001</v>
+        <f t="shared" ref="D14" si="7">(C14/(B14+C14))*A14</f>
+        <v>4.1880000000000006</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1082,54 +2218,72 @@
         <v>0</v>
       </c>
       <c r="I14">
+        <f t="shared" ref="I14" si="8">1/G14</f>
+        <v>2.2727272727272726E-3</v>
+      </c>
+      <c r="J14">
+        <v>4.7</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ref="K14" si="9">2*(2*D14)*(J14/1000)/I14</f>
+        <v>34.643136000000005</v>
+      </c>
+      <c r="L14">
+        <v>0.93540000000000001</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14" si="10">K14/L14</f>
+        <v>37.035638229634387</v>
+      </c>
+      <c r="N14">
+        <f>LN(M14/M$14)*-0.026</f>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f>12/M14*1000</f>
+        <v>324.01223722933162</v>
+      </c>
+      <c r="R14" s="1">
+        <v>2.2728499999999999E-3</v>
+      </c>
+      <c r="S14" s="6">
+        <f t="shared" si="1"/>
+        <v>439.97624128297076</v>
+      </c>
+      <c r="T14" s="4">
+        <f t="shared" ref="T14" si="11">(S14-G14)/S14</f>
+        <v>-5.3999999999904941E-5</v>
+      </c>
+      <c r="U14" s="3">
+        <v>3.6825900000000003E-5</v>
+      </c>
+      <c r="V14" s="4">
+        <f t="shared" si="2"/>
+        <v>-5.6953999667185944E-3</v>
+      </c>
+      <c r="W14" s="3">
+        <v>3.4721000000000002E-5</v>
+      </c>
+      <c r="X14" s="4">
+        <f t="shared" si="3"/>
+        <v>2.242562138187154E-3</v>
+      </c>
+      <c r="Y14">
         <f t="shared" si="4"/>
-        <v>2.2727272727272726E-3</v>
-      </c>
-      <c r="J14">
-        <v>10</v>
-      </c>
-      <c r="K14">
-        <f>(2*D14)*(J14/1000)/I14</f>
-        <v>36.467200000000005</v>
-      </c>
-      <c r="L14">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="M14">
+        <v>0.94284185858322533</v>
+      </c>
+      <c r="Z14" s="4">
         <f t="shared" si="5"/>
-        <v>36.467200000000005</v>
-      </c>
-      <c r="N14">
+        <v>7.8930082658908874E-3</v>
+      </c>
+      <c r="AA14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P14">
-        <f>12/M14*1000</f>
-        <v>329.062829062829</v>
-      </c>
-      <c r="R14" s="1">
-        <v>2.2935899999999999E-3</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="8"/>
-        <v>435.99771537197148</v>
-      </c>
-      <c r="T14" s="4">
-        <f>(S14-G14)/S14</f>
-        <v>-9.1795999999999319E-3</v>
-      </c>
-      <c r="U14" s="3">
-        <v>3.6490099999999998E-5</v>
-      </c>
-      <c r="V14" s="4">
-        <f>(U14-(M14/1000/1000))/U14</f>
-        <v>6.2756747720603683E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>10.36</v>
+        <v>10.47</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -1138,72 +2292,90 @@
         <v>10</v>
       </c>
       <c r="D15">
-        <f t="shared" si="3"/>
-        <v>4.1440000000000001</v>
+        <f>(C15/(B15+C15))*A15</f>
+        <v>4.1880000000000006</v>
       </c>
       <c r="E15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G15">
-        <f>G14*2</f>
-        <v>880</v>
+        <f>G14/2</f>
+        <v>220</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15:H19" si="9">LOG10(G15/G$14)</f>
-        <v>0.3010299956639812</v>
+        <f>LOG10(G15/G$14)</f>
+        <v>-0.3010299956639812</v>
       </c>
       <c r="I15">
-        <f t="shared" si="4"/>
-        <v>1.1363636363636363E-3</v>
+        <f>1/G15</f>
+        <v>4.5454545454545452E-3</v>
       </c>
       <c r="J15">
-        <v>10</v>
+        <v>4.7</v>
       </c>
       <c r="K15">
-        <f>(2*D15)*(J15/1000)/I15</f>
-        <v>72.934400000000011</v>
+        <f>2*(2*D15)*(J15/1000)/I15</f>
+        <v>17.321568000000003</v>
       </c>
       <c r="L15">
-        <f>1</f>
-        <v>1</v>
+        <v>0.93540000000000001</v>
       </c>
       <c r="M15">
-        <f t="shared" si="5"/>
-        <v>72.934400000000011</v>
+        <f>K15/L15</f>
+        <v>18.517819114817193</v>
       </c>
       <c r="N15">
-        <f t="shared" si="6"/>
-        <v>-1.8021826694558575E-2</v>
+        <f>LN(M15/M$14)*-0.026</f>
+        <v>1.8021826694558575E-2</v>
       </c>
       <c r="O15">
-        <f t="shared" si="7"/>
+        <f>N15/E15</f>
         <v>1.8021826694558575E-2</v>
       </c>
       <c r="R15" s="1">
-        <v>1.1472399999999999E-3</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="8"/>
-        <v>871.65719465848474</v>
+        <v>4.5335000000000002E-3</v>
+      </c>
+      <c r="S15" s="6">
+        <f t="shared" si="1"/>
+        <v>220.58012573067165</v>
       </c>
       <c r="T15" s="4">
         <f>(S15-G15)/S15</f>
-        <v>-9.5711999999999655E-3</v>
+        <v>2.6299999999999418E-3</v>
       </c>
       <c r="U15" s="3">
-        <v>7.3217000000000001E-5</v>
+        <v>1.8451E-5</v>
       </c>
       <c r="V15" s="4">
-        <f>(U15-(M15/1000/1000))/U15</f>
-        <v>3.8597593455071398E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>-3.6214359556225911E-3</v>
+      </c>
+      <c r="W15" s="3">
+        <v>1.7130200000000001E-5</v>
+      </c>
+      <c r="X15" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.1171381536701384E-2</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="4"/>
+        <v>0.92841580402146229</v>
+      </c>
+      <c r="Z15" s="4">
+        <f t="shared" si="5"/>
+        <v>-7.5227025954162528E-3</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="6"/>
+        <v>1.8069224098765262E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>10.36</v>
+        <v>10.47</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -1212,72 +2384,90 @@
         <v>10</v>
       </c>
       <c r="D16">
-        <f t="shared" si="3"/>
-        <v>4.1440000000000001</v>
+        <f>(C16/(B16+C16))*A16</f>
+        <v>4.1880000000000006</v>
       </c>
       <c r="E16">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16:G18" si="10">G15*2</f>
-        <v>1760</v>
+        <f>G15/2</f>
+        <v>110</v>
       </c>
       <c r="H16">
-        <f t="shared" si="9"/>
-        <v>0.6020599913279624</v>
+        <f>LOG10(G16/G$14)</f>
+        <v>-0.6020599913279624</v>
       </c>
       <c r="I16">
-        <f t="shared" si="4"/>
-        <v>5.6818181818181815E-4</v>
+        <f>1/G16</f>
+        <v>9.0909090909090905E-3</v>
       </c>
       <c r="J16">
-        <v>10</v>
+        <v>4.7</v>
       </c>
       <c r="K16">
-        <f>(2*D16)*(J16/1000)/I16</f>
-        <v>145.86880000000002</v>
+        <f>2*(2*D16)*(J16/1000)/I16</f>
+        <v>8.6607840000000014</v>
       </c>
       <c r="L16">
-        <f>1</f>
-        <v>1</v>
+        <v>0.93540000000000001</v>
       </c>
       <c r="M16">
-        <f t="shared" si="5"/>
-        <v>145.86880000000002</v>
+        <f>K16/L16</f>
+        <v>9.2589095574085967</v>
       </c>
       <c r="N16">
-        <f t="shared" si="6"/>
-        <v>-3.604365338911715E-2</v>
+        <f>LN(M16/M$14)*-0.026</f>
+        <v>3.604365338911715E-2</v>
       </c>
       <c r="O16">
-        <f t="shared" si="7"/>
+        <f>N16/E16</f>
         <v>1.8021826694558575E-2</v>
       </c>
       <c r="R16" s="1">
-        <v>5.7706200000000004E-4</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="8"/>
-        <v>1732.9160471491798</v>
+        <v>9.0630199999999998E-3</v>
+      </c>
+      <c r="S16" s="6">
+        <f t="shared" si="1"/>
+        <v>110.33849643937673</v>
       </c>
       <c r="T16" s="4">
         <f>(S16-G16)/S16</f>
-        <v>-1.5629120000000003E-2</v>
-      </c>
-      <c r="U16" s="1">
-        <v>1.46909E-4</v>
+        <v>3.0678000000000571E-3</v>
+      </c>
+      <c r="U16" s="3">
+        <v>9.2445999999999995E-6</v>
       </c>
       <c r="V16" s="4">
-        <f>(U16-(M16/1000/1000))/U16</f>
-        <v>7.0805736884737526E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>-1.547882808190369E-3</v>
+      </c>
+      <c r="W16" s="3">
+        <v>8.6035199999999996E-6</v>
+      </c>
+      <c r="X16" s="4">
+        <f t="shared" si="3"/>
+        <v>-6.6558803838431052E-3</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="4"/>
+        <v>0.93065357073318478</v>
+      </c>
+      <c r="Z16" s="4">
+        <f t="shared" si="5"/>
+        <v>-5.100103213568412E-3</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="6"/>
+        <v>1.8077114054492142E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>10.36</v>
+        <v>10.47</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -1286,72 +2476,90 @@
         <v>10</v>
       </c>
       <c r="D17">
-        <f t="shared" si="3"/>
-        <v>4.1440000000000001</v>
+        <f>(C17/(B17+C17))*A17</f>
+        <v>4.1880000000000006</v>
       </c>
       <c r="E17">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G17">
-        <f t="shared" si="10"/>
-        <v>3520</v>
+        <f>G16/2</f>
+        <v>55</v>
       </c>
       <c r="H17">
-        <f t="shared" si="9"/>
-        <v>0.90308998699194354</v>
+        <f>LOG10(G17/G$14)</f>
+        <v>-0.90308998699194354</v>
       </c>
       <c r="I17">
-        <f t="shared" si="4"/>
-        <v>2.8409090909090908E-4</v>
+        <f>1/G17</f>
+        <v>1.8181818181818181E-2</v>
       </c>
       <c r="J17">
-        <v>10</v>
+        <v>4.7</v>
       </c>
       <c r="K17">
-        <f>(2*D17)*(J17/1000)/I17</f>
-        <v>291.73760000000004</v>
+        <f>2*(2*D17)*(J17/1000)/I17</f>
+        <v>4.3303920000000007</v>
       </c>
       <c r="L17">
-        <f>1</f>
-        <v>1</v>
+        <v>0.93540000000000001</v>
       </c>
       <c r="M17">
-        <f t="shared" si="5"/>
-        <v>291.73760000000004</v>
+        <f>K17/L17</f>
+        <v>4.6294547787042983</v>
       </c>
       <c r="N17">
-        <f t="shared" si="6"/>
-        <v>-5.4065480083675725E-2</v>
+        <f>LN(M17/M$14)*-0.026</f>
+        <v>5.4065480083675725E-2</v>
       </c>
       <c r="O17">
-        <f t="shared" si="7"/>
+        <f>N17/E17</f>
         <v>1.8021826694558575E-2</v>
       </c>
       <c r="R17" s="1">
-        <v>2.9286999999999998E-4</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="8"/>
-        <v>3414.4842421552225</v>
+        <v>1.81581E-2</v>
+      </c>
+      <c r="S17" s="6">
+        <f t="shared" si="1"/>
+        <v>55.071841216867405</v>
       </c>
       <c r="T17" s="4">
         <f>(S17-G17)/S17</f>
-        <v>-3.0902399999999972E-2</v>
-      </c>
-      <c r="U17" s="1">
-        <v>2.94772E-4</v>
+        <v>1.3045000000000261E-3</v>
+      </c>
+      <c r="U17" s="3">
+        <v>4.6318700000000001E-6</v>
       </c>
       <c r="V17" s="4">
-        <f>(U17-(M17/1000/1000))/U17</f>
-        <v>1.029405778025045E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>5.2143546682052266E-4</v>
+      </c>
+      <c r="W17" s="3">
+        <v>4.3283800000000002E-6</v>
+      </c>
+      <c r="X17" s="4">
+        <f t="shared" si="3"/>
+        <v>-4.6483903908632824E-4</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="4"/>
+        <v>0.93447786747037376</v>
+      </c>
+      <c r="Z17" s="4">
+        <f t="shared" si="5"/>
+        <v>-9.8678905271717054E-4</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="6"/>
+        <v>1.8045336167481628E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>10.36</v>
+        <v>10.47</v>
       </c>
       <c r="B18">
         <v>15</v>
@@ -1360,72 +2568,90 @@
         <v>10</v>
       </c>
       <c r="D18">
-        <f t="shared" si="3"/>
-        <v>4.1440000000000001</v>
+        <f>(C18/(B18+C18))*A18</f>
+        <v>4.1880000000000006</v>
       </c>
       <c r="E18">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G18">
-        <f t="shared" si="10"/>
-        <v>7040</v>
+        <f>G17/2</f>
+        <v>27.5</v>
       </c>
       <c r="H18">
-        <f t="shared" si="9"/>
-        <v>1.2041199826559248</v>
+        <f>LOG10(G18/G$14)</f>
+        <v>-1.2041199826559248</v>
       </c>
       <c r="I18">
-        <f t="shared" si="4"/>
-        <v>1.4204545454545454E-4</v>
+        <f>1/G18</f>
+        <v>3.6363636363636362E-2</v>
       </c>
       <c r="J18">
-        <v>10</v>
+        <v>4.7</v>
       </c>
       <c r="K18">
-        <f>(2*D18)*(J18/1000)/I18</f>
-        <v>583.47520000000009</v>
+        <f>2*(2*D18)*(J18/1000)/I18</f>
+        <v>2.1651960000000003</v>
       </c>
       <c r="L18">
-        <f>1</f>
-        <v>1</v>
+        <v>0.93540000000000001</v>
       </c>
       <c r="M18">
-        <f t="shared" si="5"/>
-        <v>583.47520000000009</v>
+        <f>K18/L18</f>
+        <v>2.3147273893521492</v>
       </c>
       <c r="N18">
-        <f t="shared" si="6"/>
-        <v>-7.20873067782343E-2</v>
+        <f>LN(M18/M$14)*-0.026</f>
+        <v>7.20873067782343E-2</v>
       </c>
       <c r="O18">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="O18" si="12">N18/E18</f>
         <v>1.8021826694558575E-2</v>
       </c>
       <c r="R18" s="1">
-        <v>1.5093600000000001E-4</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="8"/>
-        <v>6625.3246409074045</v>
+        <v>3.6464299999999998E-2</v>
+      </c>
+      <c r="S18" s="6">
+        <f t="shared" si="1"/>
+        <v>27.42408328145611</v>
       </c>
       <c r="T18" s="4">
         <f>(S18-G18)/S18</f>
-        <v>-6.2589439999999996E-2</v>
-      </c>
-      <c r="U18" s="1">
-        <v>5.9145699999999999E-4</v>
+        <v>-2.7682499999999856E-3</v>
+      </c>
+      <c r="U18" s="3">
+        <v>2.3207300000000001E-6</v>
       </c>
       <c r="V18" s="4">
-        <f>(U18-(M18/1000/1000))/U18</f>
-        <v>1.3495148421609603E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5865183144316651E-3</v>
+      </c>
+      <c r="W18" s="3">
+        <v>2.1571399999999999E-6</v>
+      </c>
+      <c r="X18" s="4">
+        <f t="shared" si="3"/>
+        <v>-3.73457448288032E-3</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="4"/>
+        <v>0.92950924924484957</v>
+      </c>
+      <c r="Z18" s="4">
+        <f t="shared" si="5"/>
+        <v>-6.337484817860819E-3</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="6"/>
+        <v>1.7971937772811364E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>10.36</v>
+        <v>10.47</v>
       </c>
       <c r="B19">
         <v>15</v>
@@ -1434,75 +2660,1860 @@
         <v>10</v>
       </c>
       <c r="D19">
-        <f t="shared" si="3"/>
-        <v>4.1440000000000001</v>
+        <f>(C19/(B19+C19))*A19</f>
+        <v>4.1880000000000006</v>
       </c>
       <c r="E19">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G19">
-        <f>G18*2</f>
-        <v>14080</v>
+        <f>G18/2</f>
+        <v>13.75</v>
       </c>
       <c r="H19">
-        <f t="shared" si="9"/>
-        <v>1.505149978319906</v>
+        <f>LOG10(G19/G$14)</f>
+        <v>-1.505149978319906</v>
       </c>
       <c r="I19">
-        <f t="shared" si="4"/>
-        <v>7.1022727272727269E-5</v>
+        <f>1/G19</f>
+        <v>7.2727272727272724E-2</v>
       </c>
       <c r="J19">
-        <v>10</v>
+        <v>4.7</v>
       </c>
       <c r="K19">
-        <f>(2*D19)*(J19/1000)/I19</f>
-        <v>1166.9504000000002</v>
+        <f>2*(2*D19)*(J19/1000)/I19</f>
+        <v>1.0825980000000002</v>
       </c>
       <c r="L19">
-        <f>1</f>
-        <v>1</v>
+        <v>0.93540000000000001</v>
       </c>
       <c r="M19">
-        <f t="shared" si="5"/>
-        <v>1166.9504000000002</v>
+        <f>K19/L19</f>
+        <v>1.1573636946760746</v>
       </c>
       <c r="N19">
-        <f t="shared" si="6"/>
-        <v>-9.0109133472792882E-2</v>
+        <f>LN(M19/M$14)*-0.026</f>
+        <v>9.0109133472792882E-2</v>
       </c>
       <c r="O19">
-        <f t="shared" si="7"/>
+        <f>N19/E19</f>
         <v>1.8021826694558575E-2</v>
       </c>
-      <c r="Q19">
-        <f>(A19-0.6)/2</f>
-        <v>4.88</v>
-      </c>
-      <c r="R19" s="3">
-        <v>7.9742500000000004E-5</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="8"/>
-        <v>12540.364297582844</v>
+      <c r="R19" s="1">
+        <v>7.3450299999999996E-2</v>
+      </c>
+      <c r="S19" s="6">
+        <f t="shared" si="1"/>
+        <v>13.614648272369209</v>
       </c>
       <c r="T19" s="4">
         <f>(S19-G19)/S19</f>
-        <v>-0.12277440000000005</v>
-      </c>
-      <c r="U19" s="1">
-        <v>1.1867500000000001E-3</v>
+        <v>-9.9416249999999002E-3</v>
+      </c>
+      <c r="U19" s="3">
+        <v>1.1627699999999999E-6</v>
       </c>
       <c r="V19" s="4">
-        <f>(U19-(M19/1000/1000))/U19</f>
-        <v>1.6683884558668649E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4.6495053397708867E-3</v>
+      </c>
+      <c r="W19" s="3">
+        <v>1.07034E-6</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.1452435674645616E-2</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="4"/>
+        <v>0.92050878505637401</v>
+      </c>
+      <c r="Z19" s="4">
+        <f t="shared" si="5"/>
+        <v>-1.6177156791299961E-2</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="6"/>
+        <v>1.7842660451746286E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="T9:T19">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
+      <formula>-0.01</formula>
+      <formula>0.01</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B9E837-EA08-844F-99F5-D12249C1DA5D}">
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>98.1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7.9902100000000004E-2</v>
+      </c>
+      <c r="C2" s="4">
+        <f>(B2-Sheet1!I$19)/B2</f>
+        <v>8.9795227819134654E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>98.2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7.9609399999999997E-2</v>
+      </c>
+      <c r="C3" s="4">
+        <f>(B3-Sheet1!I$19)/B3</f>
+        <v>8.6448676572455932E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>98.3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7.9316899999999996E-2</v>
+      </c>
+      <c r="C4" s="4">
+        <f>(B4-Sheet1!I$19)/B4</f>
+        <v>8.3079738022127342E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>98.4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.9026700000000005E-2</v>
+      </c>
+      <c r="C5" s="4">
+        <f>(B5-Sheet1!I$19)/B5</f>
+        <v>7.9712644874799038E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>98.5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7.8738199999999994E-2</v>
+      </c>
+      <c r="C6" s="4">
+        <f>(B6-Sheet1!I$19)/B6</f>
+        <v>7.6340674192796776E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>98.6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7.8452300000000003E-2</v>
+      </c>
+      <c r="C7" s="4">
+        <f>(B7-Sheet1!I$19)/B7</f>
+        <v>7.297462627261761E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>98.7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7.8166200000000005E-2</v>
+      </c>
+      <c r="C8" s="4">
+        <f>(B8-Sheet1!I$19)/B8</f>
+        <v>6.9581574551753581E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>98.800000000000097</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7.7882900000000005E-2</v>
+      </c>
+      <c r="C9" s="4">
+        <f>(B9-Sheet1!I$19)/B9</f>
+        <v>6.6197166165195193E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>98.900000000000105</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7.76004E-2</v>
+      </c>
+      <c r="C10" s="4">
+        <f>(B10-Sheet1!I$19)/B10</f>
+        <v>6.2797708165515595E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>99.000000000000099</v>
+      </c>
+      <c r="B11" s="1">
+        <v>7.73205E-2</v>
+      </c>
+      <c r="C11" s="4">
+        <f>(B11-Sheet1!I$19)/B11</f>
+        <v>5.9405038414486154E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>99.100000000000094</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7.7040700000000004E-2</v>
+      </c>
+      <c r="C12" s="4">
+        <f>(B12-Sheet1!I$19)/B12</f>
+        <v>5.5988941854464971E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>99.200000000000102</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7.6764399999999997E-2</v>
+      </c>
+      <c r="C13" s="4">
+        <f>(B13-Sheet1!I$19)/B13</f>
+        <v>5.2591139548114396E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>99.300000000000097</v>
+      </c>
+      <c r="B14" s="1">
+        <v>7.6489500000000002E-2</v>
+      </c>
+      <c r="C14" s="4">
+        <f>(B14-Sheet1!I$19)/B14</f>
+        <v>4.918619251959129E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>99.400000000000105</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7.6214900000000002E-2</v>
+      </c>
+      <c r="C15" s="4">
+        <f>(B15-Sheet1!I$19)/B15</f>
+        <v>4.5760438873859027E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>99.500000000000099</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7.5941599999999998E-2</v>
+      </c>
+      <c r="C16" s="4">
+        <f>(B16-Sheet1!I$19)/B16</f>
+        <v>4.2326304327631688E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>99.600000000000094</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7.5670299999999996E-2</v>
+      </c>
+      <c r="C17" s="4">
+        <f>(B17-Sheet1!I$19)/B17</f>
+        <v>3.8892766022168172E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>99.700000000000102</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7.5401300000000004E-2</v>
+      </c>
+      <c r="C18" s="4">
+        <f>(B18-Sheet1!I$19)/B18</f>
+        <v>3.5463941241427939E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>99.800000000000097</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7.5134000000000006E-2</v>
+      </c>
+      <c r="C19" s="4">
+        <f>(B19-Sheet1!I$19)/B19</f>
+        <v>3.203246563110286E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>99.900000000000105</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7.4866799999999997E-2</v>
+      </c>
+      <c r="C20" s="4">
+        <f>(B20-Sheet1!I$19)/B20</f>
+        <v>2.8577784448210335E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>100</v>
+      </c>
+      <c r="B21" s="1">
+        <v>7.4603100000000006E-2</v>
+      </c>
+      <c r="C21" s="4">
+        <f>(B21-Sheet1!I$19)/B21</f>
+        <v>2.514409284235215E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>100.1</v>
+      </c>
+      <c r="B22" s="1">
+        <v>7.4338699999999994E-2</v>
+      </c>
+      <c r="C22" s="4">
+        <f>(B22-Sheet1!I$19)/B22</f>
+        <v>2.1676828794790198E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>100.2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>7.4076900000000001E-2</v>
+      </c>
+      <c r="C23" s="4">
+        <f>(B23-Sheet1!I$19)/B23</f>
+        <v>1.8219273116548848E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>100.3</v>
+      </c>
+      <c r="B24" s="1">
+        <v>7.3815900000000004E-2</v>
+      </c>
+      <c r="C24" s="4">
+        <f>(B24-Sheet1!I$19)/B24</f>
+        <v>1.4747869669370419E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>100.4</v>
+      </c>
+      <c r="B25" s="1">
+        <v>7.3556899999999995E-2</v>
+      </c>
+      <c r="C25" s="4">
+        <f>(B25-Sheet1!I$19)/B25</f>
+        <v>1.1278714474471747E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>100.5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>7.3297399999999999E-2</v>
+      </c>
+      <c r="C26" s="4">
+        <f>(B26-Sheet1!I$19)/B26</f>
+        <v>7.778274164257872E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>100.6</v>
+      </c>
+      <c r="B27" s="1">
+        <v>7.3041599999999998E-2</v>
+      </c>
+      <c r="C27" s="4">
+        <f>(B27-Sheet1!I$19)/B27</f>
+        <v>4.3034007021652658E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>100.7</v>
+      </c>
+      <c r="B28" s="1">
+        <v>7.2787299999999999E-2</v>
+      </c>
+      <c r="C28" s="4">
+        <f>(B28-Sheet1!I$19)/B28</f>
+        <v>8.246943179273786E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>100.8</v>
+      </c>
+      <c r="B29" s="1">
+        <v>7.2534899999999999E-2</v>
+      </c>
+      <c r="C29" s="4">
+        <f>(B29-Sheet1!I$19)/B29</f>
+        <v>-2.6521402424587938E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>100.9</v>
+      </c>
+      <c r="B30" s="1">
+        <v>7.2281600000000001E-2</v>
+      </c>
+      <c r="C30" s="4">
+        <f>(B30-Sheet1!I$19)/B30</f>
+        <v>-6.1657839238855022E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>101</v>
+      </c>
+      <c r="B31" s="1">
+        <v>7.2030899999999995E-2</v>
+      </c>
+      <c r="C31" s="4">
+        <f>(B31-Sheet1!I$19)/B31</f>
+        <v>-9.6676943821711082E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>101.1</v>
+      </c>
+      <c r="B32" s="1">
+        <v>7.1781600000000001E-2</v>
+      </c>
+      <c r="C32" s="4">
+        <f>(B32-Sheet1!I$19)/B32</f>
+        <v>-1.3174305494342878E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>101.2</v>
+      </c>
+      <c r="B33" s="1">
+        <v>7.1534200000000006E-2</v>
+      </c>
+      <c r="C33" s="4">
+        <f>(B33-Sheet1!I$19)/B33</f>
+        <v>-1.6678354231580383E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>101.3</v>
+      </c>
+      <c r="B34" s="1">
+        <v>7.1284899999999998E-2</v>
+      </c>
+      <c r="C34" s="4">
+        <f>(B34-Sheet1!I$19)/B34</f>
+        <v>-2.0233916681831995E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>101.4</v>
+      </c>
+      <c r="B35" s="1">
+        <v>7.10422E-2</v>
+      </c>
+      <c r="C35" s="4">
+        <f>(B35-Sheet1!I$19)/B35</f>
+        <v>-2.371932073151907E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>101.5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>7.0798200000000006E-2</v>
+      </c>
+      <c r="C36" s="4">
+        <f>(B36-Sheet1!I$19)/B36</f>
+        <v>-2.7247482665840629E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>101.6</v>
+      </c>
+      <c r="B37" s="1">
+        <v>7.0555499999999993E-2</v>
+      </c>
+      <c r="C37" s="4">
+        <f>(B37-Sheet1!I$19)/B37</f>
+        <v>-3.0781055017294622E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>101.7</v>
+      </c>
+      <c r="B38" s="1">
+        <v>7.0313600000000004E-2</v>
+      </c>
+      <c r="C38" s="4">
+        <f>(B38-Sheet1!I$19)/B38</f>
+        <v>-3.4327252868189363E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>101.8</v>
+      </c>
+      <c r="B39" s="1">
+        <v>7.0074499999999998E-2</v>
+      </c>
+      <c r="C39" s="4">
+        <f>(B39-Sheet1!I$19)/B39</f>
+        <v>-3.785646315382523E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>101.9</v>
+      </c>
+      <c r="B40" s="1">
+        <v>6.9835400000000006E-2</v>
+      </c>
+      <c r="C40" s="4">
+        <f>(B40-Sheet1!I$19)/B40</f>
+        <v>-4.1409839812941829E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>102</v>
+      </c>
+      <c r="B41" s="1">
+        <v>6.9596199999999997E-2</v>
+      </c>
+      <c r="C41" s="4">
+        <f>(B41-Sheet1!I$19)/B41</f>
+        <v>-4.4989133419248852E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>102.1</v>
+      </c>
+      <c r="B42" s="1">
+        <v>6.9360599999999994E-2</v>
+      </c>
+      <c r="C42" s="4">
+        <f>(B42-Sheet1!I$19)/B42</f>
+        <v>-4.8538690946628625E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FEA787-5F96-234F-9E03-776BDBC727C5}">
+  <dimension ref="A1:C102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>320</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.23092E-3</v>
+      </c>
+      <c r="C2" s="7">
+        <f>(B2-Sheet1!I$14)/B2</f>
+        <v>-1.8739924662145063E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>320.10000000000002</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.2314399999999999E-3</v>
+      </c>
+      <c r="C3" s="7">
+        <f>(B3-Sheet1!I$14)/B3</f>
+        <v>-1.8502524256656116E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>320.2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.2324100000000002E-3</v>
+      </c>
+      <c r="C4" s="7">
+        <f>(B4-Sheet1!I$14)/B4</f>
+        <v>-1.8059976763798946E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>320.3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.2331E-3</v>
+      </c>
+      <c r="C5" s="7">
+        <f>(B5-Sheet1!I$14)/B5</f>
+        <v>-1.774540895046017E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>320.39999999999998</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.2338000000000002E-3</v>
+      </c>
+      <c r="C6" s="7">
+        <f>(B6-Sheet1!I$14)/B6</f>
+        <v>-1.7426480762499964E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>320.5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.2343900000000002E-3</v>
+      </c>
+      <c r="C7" s="7">
+        <f>(B7-Sheet1!I$14)/B7</f>
+        <v>-1.7157825056177505E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>320.60000000000002</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.23522E-3</v>
+      </c>
+      <c r="C8" s="7">
+        <f>(B8-Sheet1!I$14)/B8</f>
+        <v>-1.6780125771634388E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>320.7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.2359099999999998E-3</v>
+      </c>
+      <c r="C9" s="7">
+        <f>(B9-Sheet1!I$14)/B9</f>
+        <v>-1.6466348255194892E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>320.8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.2365000000000002E-3</v>
+      </c>
+      <c r="C10" s="7">
+        <f>(B10-Sheet1!I$14)/B10</f>
+        <v>-1.6198199296790703E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>320.89999999999998</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2.2372099999999999E-3</v>
+      </c>
+      <c r="C11" s="7">
+        <f>(B11-Sheet1!I$14)/B11</f>
+        <v>-1.5875699074862318E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>321</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2.238E-3</v>
+      </c>
+      <c r="C12" s="7">
+        <f>(B12-Sheet1!I$14)/B12</f>
+        <v>-1.5517101307985989E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>321.10000000000002</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2.2386699999999999E-3</v>
+      </c>
+      <c r="C13" s="7">
+        <f>(B13-Sheet1!I$14)/B13</f>
+        <v>-1.5213172431520823E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>321.2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.2393199999999999E-3</v>
+      </c>
+      <c r="C14" s="7">
+        <f>(B14-Sheet1!I$14)/B14</f>
+        <v>-1.491848986624184E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>321.3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2.2400200000000001E-3</v>
+      </c>
+      <c r="C15" s="7">
+        <f>(B15-Sheet1!I$14)/B15</f>
+        <v>-1.4601330669937098E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>321.39999999999998</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2.2406499999999998E-3</v>
+      </c>
+      <c r="C16" s="7">
+        <f>(B16-Sheet1!I$14)/B16</f>
+        <v>-1.4316056826042789E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>321.5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.2414399999999999E-3</v>
+      </c>
+      <c r="C17" s="7">
+        <f>(B17-Sheet1!I$14)/B17</f>
+        <v>-1.3958559108105813E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>321.60000000000002</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2.2420399999999998E-3</v>
+      </c>
+      <c r="C18" s="7">
+        <f>(B18-Sheet1!I$14)/B18</f>
+        <v>-1.3687210186826634E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>321.7</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.24282E-3</v>
+      </c>
+      <c r="C19" s="7">
+        <f>(B19-Sheet1!I$14)/B19</f>
+        <v>-1.3334673637328296E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>321.8</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.2435100000000002E-3</v>
+      </c>
+      <c r="C20" s="7">
+        <f>(B20-Sheet1!I$14)/B20</f>
+        <v>-1.3023018719449615E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>321.89999999999998</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.2442299999999998E-3</v>
+      </c>
+      <c r="C21" s="7">
+        <f>(B21-Sheet1!I$14)/B21</f>
+        <v>-1.2698017906931456E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>322</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.2449200000000001E-3</v>
+      </c>
+      <c r="C22" s="7">
+        <f>(B22-Sheet1!I$14)/B22</f>
+        <v>-1.2386754417650759E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>322.10000000000002</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2.2456199999999998E-3</v>
+      </c>
+      <c r="C23" s="7">
+        <f>(B23-Sheet1!I$14)/B23</f>
+        <v>-1.2071175322304218E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>322.20000000000101</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2.24632E-3</v>
+      </c>
+      <c r="C24" s="7">
+        <f>(B24-Sheet1!I$14)/B24</f>
+        <v>-1.1755792908967831E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>322.30000000000098</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2.2467199999999998E-3</v>
+      </c>
+      <c r="C25" s="7">
+        <f>(B25-Sheet1!I$14)/B25</f>
+        <v>-1.1575662622522088E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>322.400000000001</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2.2477199999999999E-3</v>
+      </c>
+      <c r="C26" s="7">
+        <f>(B26-Sheet1!I$14)/B26</f>
+        <v>-1.1125617393301965E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>322.50000000000102</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2.2478200000000002E-3</v>
+      </c>
+      <c r="C27" s="7">
+        <f>(B27-Sheet1!I$14)/B27</f>
+        <v>-1.1080634893929414E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>322.60000000000099</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2.2491E-3</v>
+      </c>
+      <c r="C28" s="7">
+        <f>(B28-Sheet1!I$14)/B28</f>
+        <v>-1.0505212185884419E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>322.70000000000101</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2.2496399999999998E-3</v>
+      </c>
+      <c r="C29" s="7">
+        <f>(B29-Sheet1!I$14)/B29</f>
+        <v>-1.0262652125350198E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>322.80000000000098</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2.2504999999999999E-3</v>
+      </c>
+      <c r="C30" s="7">
+        <f>(B30-Sheet1!I$14)/B30</f>
+        <v>-9.8765930803255825E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>322.900000000001</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2.2511699999999998E-3</v>
+      </c>
+      <c r="C31" s="7">
+        <f>(B31-Sheet1!I$14)/B31</f>
+        <v>-9.5760305651162725E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>323.00000000000102</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2.2517800000000001E-3</v>
+      </c>
+      <c r="C32" s="7">
+        <f>(B32-Sheet1!I$14)/B32</f>
+        <v>-9.3025396474222689E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>323.10000000000099</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2.2522900000000001E-3</v>
+      </c>
+      <c r="C33" s="7">
+        <f>(B33-Sheet1!I$14)/B33</f>
+        <v>-9.0739970107190943E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>323.20000000000101</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2.2532899999999998E-3</v>
+      </c>
+      <c r="C34" s="7">
+        <f>(B34-Sheet1!I$14)/B34</f>
+        <v>-8.6261744947489279E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>323.30000000000098</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2.2539499999999998E-3</v>
+      </c>
+      <c r="C35" s="7">
+        <f>(B35-Sheet1!I$14)/B35</f>
+        <v>-8.3308293117739206E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>323.400000000001</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2.2546699999999999E-3</v>
+      </c>
+      <c r="C36" s="7">
+        <f>(B36-Sheet1!I$14)/B36</f>
+        <v>-8.0088317701804551E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>323.50000000000102</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2.2553500000000001E-3</v>
+      </c>
+      <c r="C37" s="7">
+        <f>(B37-Sheet1!I$14)/B37</f>
+        <v>-7.7049117552807616E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>323.60000000000099</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2.25604E-3</v>
+      </c>
+      <c r="C38" s="7">
+        <f>(B38-Sheet1!I$14)/B38</f>
+        <v>-7.3967096005712052E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>323.70000000000101</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2.2566299999999999E-3</v>
+      </c>
+      <c r="C39" s="7">
+        <f>(B39-Sheet1!I$14)/B39</f>
+        <v>-7.1333239065654083E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>323.80000000000098</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2.2574000000000001E-3</v>
+      </c>
+      <c r="C40" s="7">
+        <f>(B40-Sheet1!I$14)/B40</f>
+        <v>-6.7897903460939569E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>323.900000000001</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2.2579800000000001E-3</v>
+      </c>
+      <c r="C41" s="7">
+        <f>(B41-Sheet1!I$14)/B41</f>
+        <v>-6.5311795176540418E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>324.00000000000102</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2.25881E-3</v>
+      </c>
+      <c r="C42" s="7">
+        <f>(B42-Sheet1!I$14)/B42</f>
+        <v>-6.1613295174329109E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>324.10000000000099</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2.2595100000000002E-3</v>
+      </c>
+      <c r="C43" s="7">
+        <f>(B43-Sheet1!I$14)/B43</f>
+        <v>-5.849619044515161E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>324.20000000000101</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2.2601600000000002E-3</v>
+      </c>
+      <c r="C44" s="7">
+        <f>(B44-Sheet1!I$14)/B44</f>
+        <v>-5.5603464919618114E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>324.30000000000098</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2.26093E-3</v>
+      </c>
+      <c r="C45" s="7">
+        <f>(B45-Sheet1!I$14)/B45</f>
+        <v>-5.2178849974447005E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>324.400000000001</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2.2616200000000002E-3</v>
+      </c>
+      <c r="C46" s="7">
+        <f>(B46-Sheet1!I$14)/B46</f>
+        <v>-4.911202026543984E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>324.50000000000102</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2.2622200000000001E-3</v>
+      </c>
+      <c r="C47" s="7">
+        <f>(B47-Sheet1!I$14)/B47</f>
+        <v>-4.6446732533849495E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>324.60000000000099</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2.2629899999999999E-3</v>
+      </c>
+      <c r="C48" s="7">
+        <f>(B48-Sheet1!I$14)/B48</f>
+        <v>-4.3028350665591701E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>324.70000000000101</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2.2637299999999998E-3</v>
+      </c>
+      <c r="C49" s="7">
+        <f>(B49-Sheet1!I$14)/B49</f>
+        <v>-3.9745343867302173E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>324.80000000000098</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2.2643899999999998E-3</v>
+      </c>
+      <c r="C50" s="7">
+        <f>(B50-Sheet1!I$14)/B50</f>
+        <v>-3.6819067065623906E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>324.900000000001</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2.2650299999999999E-3</v>
+      </c>
+      <c r="C51" s="7">
+        <f>(B51-Sheet1!I$14)/B51</f>
+        <v>-3.3983093942564599E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>325.00000000000102</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2.2655000000000002E-3</v>
+      </c>
+      <c r="C52" s="7">
+        <f>(B52-Sheet1!I$14)/B52</f>
+        <v>-3.1901446600187439E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>325.10000000000099</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2.26647E-3</v>
+      </c>
+      <c r="C53" s="7">
+        <f>(B53-Sheet1!I$14)/B53</f>
+        <v>-2.7608010374161524E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>325.20000000000101</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2.26714E-3</v>
+      </c>
+      <c r="C54" s="7">
+        <f>(B54-Sheet1!I$14)/B54</f>
+        <v>-2.464458625083878E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>325.30000000000098</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2.2678199999999998E-3</v>
+      </c>
+      <c r="C55" s="7">
+        <f>(B55-Sheet1!I$14)/B55</f>
+        <v>-2.1638722329253637E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>325.400000000001</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2.26837E-3</v>
+      </c>
+      <c r="C56" s="7">
+        <f>(B56-Sheet1!I$14)/B56</f>
+        <v>-1.920882716343716E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>325.50000000000102</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2.2688600000000001E-3</v>
+      </c>
+      <c r="C57" s="7">
+        <f>(B57-Sheet1!I$14)/B57</f>
+        <v>-1.7045003778428237E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>325.60000000000099</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2.26991E-3</v>
+      </c>
+      <c r="C58" s="7">
+        <f>(B58-Sheet1!I$14)/B58</f>
+        <v>-1.2411385153035292E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>325.70000000000101</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2.2703799999999998E-3</v>
+      </c>
+      <c r="C59" s="7">
+        <f>(B59-Sheet1!I$14)/B59</f>
+        <v>-1.0338677786418235E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>325.80000000000098</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2.2713400000000002E-3</v>
+      </c>
+      <c r="C60" s="7">
+        <f>(B60-Sheet1!I$14)/B60</f>
+        <v>-6.1077281572659856E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>325.900000000001</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2.2714300000000001E-3</v>
+      </c>
+      <c r="C61" s="7">
+        <f>(B61-Sheet1!I$14)/B61</f>
+        <v>-5.7112599871999279E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>326.00000000000102</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2.27275E-3</v>
+      </c>
+      <c r="C62" s="7">
+        <f>(B62-Sheet1!I$14)/B62</f>
+        <v>9.9999000010620325E-6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>326.10000000000099</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2.2734399999999998E-3</v>
+      </c>
+      <c r="C63" s="7">
+        <f>(B63-Sheet1!I$14)/B63</f>
+        <v>3.1350168587128717E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>326.20000000000101</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2.2741300000000001E-3</v>
+      </c>
+      <c r="C64" s="7">
+        <f>(B64-Sheet1!I$14)/B64</f>
+        <v>6.1681929912865935E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>326.30000000000098</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2.2746799999999998E-3</v>
+      </c>
+      <c r="C65" s="7">
+        <f>(B65-Sheet1!I$14)/B65</f>
+        <v>8.5846240909808315E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>326.400000000001</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2.2755100000000001E-3</v>
+      </c>
+      <c r="C66" s="7">
+        <f>(B66-Sheet1!I$14)/B66</f>
+        <v>1.2229026779612053E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>326.50000000000102</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2.2761499999999998E-3</v>
+      </c>
+      <c r="C67" s="7">
+        <f>(B67-Sheet1!I$14)/B67</f>
+        <v>1.5037353745259194E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>326.60000000000201</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2.2768200000000001E-3</v>
+      </c>
+      <c r="C68" s="7">
+        <f>(B68-Sheet1!I$14)/B68</f>
+        <v>1.7975629486421977E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>326.70000000000198</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2.2775500000000001E-3</v>
+      </c>
+      <c r="C69" s="7">
+        <f>(B69-Sheet1!I$14)/B69</f>
+        <v>2.1175066508869311E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>326.800000000002</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2.2782499999999999E-3</v>
+      </c>
+      <c r="C70" s="7">
+        <f>(B70-Sheet1!I$14)/B70</f>
+        <v>2.4241094141236813E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>326.90000000000202</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2.2789799999999999E-3</v>
+      </c>
+      <c r="C71" s="7">
+        <f>(B71-Sheet1!I$14)/B71</f>
+        <v>2.7436516655377748E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>327.00000000000199</v>
+      </c>
+      <c r="B72" s="1">
+        <v>2.2796000000000001E-3</v>
+      </c>
+      <c r="C72" s="7">
+        <f>(B72-Sheet1!I$14)/B72</f>
+        <v>3.0148829938267674E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>327.10000000000201</v>
+      </c>
+      <c r="B73" s="1">
+        <v>2.2804000000000001E-3</v>
+      </c>
+      <c r="C73" s="7">
+        <f>(B73-Sheet1!I$14)/B73</f>
+        <v>3.3646409720783713E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>327.20000000000198</v>
+      </c>
+      <c r="B74" s="1">
+        <v>2.2810399999999998E-3</v>
+      </c>
+      <c r="C74" s="7">
+        <f>(B74-Sheet1!I$14)/B74</f>
+        <v>3.6442707154312015E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>327.300000000002</v>
+      </c>
+      <c r="B75" s="1">
+        <v>2.2815999999999999E-3</v>
+      </c>
+      <c r="C75" s="7">
+        <f>(B75-Sheet1!I$14)/B75</f>
+        <v>3.8888180543159758E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>327.40000000000202</v>
+      </c>
+      <c r="B76" s="1">
+        <v>2.2823499999999998E-3</v>
+      </c>
+      <c r="C76" s="7">
+        <f>(B76-Sheet1!I$14)/B76</f>
+        <v>4.2161488258712354E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>327.50000000000199</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2.2831399999999999E-3</v>
+      </c>
+      <c r="C77" s="7">
+        <f>(B77-Sheet1!I$14)/B77</f>
+        <v>4.5607046754589263E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>327.60000000000201</v>
+      </c>
+      <c r="B78" s="1">
+        <v>2.2838799999999999E-3</v>
+      </c>
+      <c r="C78" s="7">
+        <f>(B78-Sheet1!I$14)/B78</f>
+        <v>4.8832369794942097E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>327.70000000000198</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2.2845700000000001E-3</v>
+      </c>
+      <c r="C79" s="7">
+        <f>(B79-Sheet1!I$14)/B79</f>
+        <v>5.1837883158438883E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>327.800000000002</v>
+      </c>
+      <c r="B80" s="1">
+        <v>2.28525E-3</v>
+      </c>
+      <c r="C80" s="7">
+        <f>(B80-Sheet1!I$14)/B80</f>
+        <v>5.4798062674662898E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>327.90000000000202</v>
+      </c>
+      <c r="B81" s="1">
+        <v>2.2856E-3</v>
+      </c>
+      <c r="C81" s="7">
+        <f>(B81-Sheet1!I$14)/B81</f>
+        <v>5.6320997868075902E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>328.00000000000199</v>
+      </c>
+      <c r="B82" s="1">
+        <v>2.2863499999999999E-3</v>
+      </c>
+      <c r="C82" s="7">
+        <f>(B82-Sheet1!I$14)/B82</f>
+        <v>5.9582860335151274E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>328.10000000000201</v>
+      </c>
+      <c r="B83" s="1">
+        <v>2.2872499999999998E-3</v>
+      </c>
+      <c r="C83" s="7">
+        <f>(B83-Sheet1!I$14)/B83</f>
+        <v>6.3494271604447134E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>328.20000000000198</v>
+      </c>
+      <c r="B84" s="1">
+        <v>2.2873199999999998E-3</v>
+      </c>
+      <c r="C84" s="7">
+        <f>(B84-Sheet1!I$14)/B84</f>
+        <v>6.3798363467845289E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>328.300000000002</v>
+      </c>
+      <c r="B85" s="1">
+        <v>2.2886899999999999E-3</v>
+      </c>
+      <c r="C85" s="7">
+        <f>(B85-Sheet1!I$14)/B85</f>
+        <v>6.9746131073790216E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>328.40000000000202</v>
+      </c>
+      <c r="B86" s="1">
+        <v>2.2893900000000001E-3</v>
+      </c>
+      <c r="C86" s="7">
+        <f>(B86-Sheet1!I$14)/B86</f>
+        <v>7.2782388639451865E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>328.50000000000199</v>
+      </c>
+      <c r="B87" s="1">
+        <v>2.29014E-3</v>
+      </c>
+      <c r="C87" s="7">
+        <f>(B87-Sheet1!I$14)/B87</f>
+        <v>7.6033462027331753E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>328.60000000000201</v>
+      </c>
+      <c r="B88" s="1">
+        <v>2.2905099999999999E-3</v>
+      </c>
+      <c r="C88" s="7">
+        <f>(B88-Sheet1!I$14)/B88</f>
+        <v>7.7636540651327985E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>328.70000000000198</v>
+      </c>
+      <c r="B89" s="1">
+        <v>2.2915399999999999E-3</v>
+      </c>
+      <c r="C89" s="7">
+        <f>(B89-Sheet1!I$14)/B89</f>
+        <v>8.2096438520502715E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>328.800000000002</v>
+      </c>
+      <c r="B90" s="1">
+        <v>2.2921199999999999E-3</v>
+      </c>
+      <c r="C90" s="7">
+        <f>(B90-Sheet1!I$14)/B90</f>
+        <v>8.460607329776498E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>328.90000000000202</v>
+      </c>
+      <c r="B91" s="1">
+        <v>2.2928599999999999E-3</v>
+      </c>
+      <c r="C91" s="7">
+        <f>(B91-Sheet1!I$14)/B91</f>
+        <v>8.7806177754975213E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>329.00000000000199</v>
+      </c>
+      <c r="B92" s="1">
+        <v>2.2934600000000002E-3</v>
+      </c>
+      <c r="C92" s="7">
+        <f>(B92-Sheet1!I$14)/B92</f>
+        <v>9.0399341051195948E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>329.10000000000201</v>
+      </c>
+      <c r="B93" s="1">
+        <v>2.2938400000000001E-3</v>
+      </c>
+      <c r="C93" s="7">
+        <f>(B93-Sheet1!I$14)/B93</f>
+        <v>9.2040976147976742E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>329.20000000000198</v>
+      </c>
+      <c r="B94" s="1">
+        <v>2.2948000000000001E-3</v>
+      </c>
+      <c r="C94" s="7">
+        <f>(B94-Sheet1!I$14)/B94</f>
+        <v>9.6185843091892258E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>329.300000000002</v>
+      </c>
+      <c r="B95" s="1">
+        <v>2.2955300000000001E-3</v>
+      </c>
+      <c r="C95" s="7">
+        <f>(B95-Sheet1!I$14)/B95</f>
+        <v>9.9335348580621621E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>329.40000000000202</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2.2961499999999998E-3</v>
+      </c>
+      <c r="C96" s="7">
+        <f>(B96-Sheet1!I$14)/B96</f>
+        <v>1.0200869835475568E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>329.50000000000199</v>
+      </c>
+      <c r="B97" s="1">
+        <v>2.2970400000000002E-3</v>
+      </c>
+      <c r="C97" s="7">
+        <f>(B97-Sheet1!I$14)/B97</f>
+        <v>1.0584372615508469E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>329.60000000000201</v>
+      </c>
+      <c r="B98" s="1">
+        <v>2.29773E-3</v>
+      </c>
+      <c r="C98" s="7">
+        <f>(B98-Sheet1!I$14)/B98</f>
+        <v>1.0881490546203158E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>329.70000000000198</v>
+      </c>
+      <c r="B99" s="1">
+        <v>2.2984500000000001E-3</v>
+      </c>
+      <c r="C99" s="7">
+        <f>(B99-Sheet1!I$14)/B99</f>
+        <v>1.1191336454013549E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>329.800000000002</v>
+      </c>
+      <c r="B100" s="1">
+        <v>2.2990599999999999E-3</v>
+      </c>
+      <c r="C100" s="7">
+        <f>(B100-Sheet1!I$14)/B100</f>
+        <v>1.1453692932210246E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>329.90000000000202</v>
+      </c>
+      <c r="B101" s="1">
+        <v>2.2997899999999999E-3</v>
+      </c>
+      <c r="C101" s="7">
+        <f>(B101-Sheet1!I$14)/B101</f>
+        <v>1.1767477583921703E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>330.00000000000199</v>
+      </c>
+      <c r="B102" s="1">
+        <v>2.3002399999999998E-3</v>
+      </c>
+      <c r="C102" s="7">
+        <f>(B102-Sheet1!I$14)/B102</f>
+        <v>1.1960807251733393E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vco/current-capacitance-calc.xlsx
+++ b/vco/current-capacitance-calc.xlsx
@@ -1,39 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjk/projects/synthesizer/vco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E258DEEA-2DE0-2040-846B-DCE0DB4F066B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA34B9B-2DC6-5E45-9B98-58EAF2E10774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17980" yWindow="2540" windowWidth="32660" windowHeight="16820" xr2:uid="{92B60CF5-5B90-0E48-AB3B-ECDA0BA97871}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{92B60CF5-5B90-0E48-AB3B-ECDA0BA97871}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$9:$E$19</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$T$8</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$T$8</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$T$9:$T$19</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$E$9:$E$19</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$T$8</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$T$9:$T$19</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$T$9:$T$19</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$E$9:$E$19</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$T$8</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$T$9:$T$19</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$E$9:$E$19</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$T$8</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$T$9:$T$19</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$E$9:$E$19</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>I (mA)</t>
   </si>
@@ -188,14 +171,17 @@
   <si>
     <t>RREF (kohm)</t>
   </si>
+  <si>
+    <t>compensation voltage</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="173" formatCode="0.000"/>
-    <numFmt numFmtId="174" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -247,8 +233,8 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,6 +630,743 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$9:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$9:$AA$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.5494484934408567E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6680068536987572E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7346091814788491E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7714374331149401E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7917213594962005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8020853515917069E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8069224098765262E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8077114054492142E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8045336167481628E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7971937772811364E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7842660451746286E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-361C-F445-AA84-DED21F4172DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2090003135"/>
+        <c:axId val="2090492895"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2090003135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2090492895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2090492895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2090003135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$9:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB$9:$AB$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.70118912000000044</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29780735999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11248607999999981</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4120000000000282E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8047999999998844E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6299999999999418E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1356000000001142E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9135000000000784E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.1072999999999942E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.9708124999999499E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8070-5843-9585-AA6F6A60755A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2001593711"/>
+        <c:axId val="2001296239"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2001593711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2001296239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2001296239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2001593711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -684,7 +1407,1119 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1233,6 +3068,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3003EF34-67F2-8845-A4F6-25E47F8C8836}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B462A2AA-FB10-8741-A3FD-EB21F2FB37EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1538,10 +3445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615EEAF9-148B-2D4F-BA31-B8EEB59C579B}">
-  <dimension ref="A1:AA20"/>
+  <dimension ref="A1:AB20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" topLeftCell="P6" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1569,7 +3476,7 @@
     <col min="22" max="22" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1583,7 +3490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1598,7 +3505,7 @@
         <v>348.43205574912889</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -1613,7 +3520,7 @@
         <v>174.5200698080279</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -1628,7 +3535,7 @@
         <v>347.22222222222223</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1643,7 +3550,7 @@
         <v>694.44444444444446</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1725,8 +3632,11 @@
       <c r="AA8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10.47</v>
       </c>
@@ -1751,7 +3661,7 @@
         <v>14080</v>
       </c>
       <c r="H9">
-        <f>LOG10(G9/G$14)</f>
+        <f t="shared" ref="H9:H19" si="1">LOG10(G9/G$14)</f>
         <v>1.505149978319906</v>
       </c>
       <c r="I9">
@@ -1773,7 +3683,7 @@
         <v>1185.1404233483004</v>
       </c>
       <c r="N9">
-        <f>LN(M9/M$14)*-0.026</f>
+        <f t="shared" ref="N9:N19" si="2">LN(M9/M$14)*-0.026</f>
         <v>-9.0109133472792882E-2</v>
       </c>
       <c r="O9">
@@ -1821,8 +3731,12 @@
         <f>O9*(1+T9)</f>
         <v>1.5494484934408567E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="5">
+        <f>T9*E9</f>
+        <v>0.70118912000000044</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10.47</v>
       </c>
@@ -1847,7 +3761,7 @@
         <v>7040</v>
       </c>
       <c r="H10">
-        <f>LOG10(G10/G$14)</f>
+        <f t="shared" si="1"/>
         <v>1.2041199826559248</v>
       </c>
       <c r="I10">
@@ -1869,7 +3783,7 @@
         <v>592.57021167415019</v>
       </c>
       <c r="N10">
-        <f>LN(M10/M$14)*-0.026</f>
+        <f t="shared" si="2"/>
         <v>-7.20873067782343E-2</v>
       </c>
       <c r="O10">
@@ -1880,7 +3794,7 @@
         <v>1.52621E-4</v>
       </c>
       <c r="S10" s="6">
-        <f t="shared" ref="S10:S19" si="1">1/R10</f>
+        <f t="shared" ref="S10:S19" si="3">1/R10</f>
         <v>6552.1782716664156</v>
       </c>
       <c r="T10" s="4">
@@ -1891,30 +3805,34 @@
         <v>5.8436399999999998E-4</v>
       </c>
       <c r="V10" s="4">
-        <f t="shared" ref="V10:V19" si="2">(U10-(M10/1000/1000))/U10</f>
+        <f t="shared" ref="V10:V19" si="4">(U10-(M10/1000/1000))/U10</f>
         <v>-1.4042979502758866E-2</v>
       </c>
       <c r="W10" s="1">
         <v>5.4532599999999995E-4</v>
       </c>
       <c r="X10" s="4">
-        <f t="shared" ref="X10:X19" si="3">(W10-(K10/1000/1000))/W10</f>
+        <f t="shared" ref="X10:X19" si="5">(W10-(K10/1000/1000))/W10</f>
         <v>-1.6438196601666052E-2</v>
       </c>
       <c r="Y10">
-        <f t="shared" ref="Y10:Y19" si="4">W10/U10</f>
+        <f t="shared" ref="Y10:Y19" si="6">W10/U10</f>
         <v>0.93319574785578852</v>
       </c>
       <c r="Z10" s="4">
-        <f t="shared" ref="Z10:Z19" si="5">(Y10-L10)/Y10</f>
+        <f t="shared" ref="Z10:Z19" si="7">(Y10-L10)/Y10</f>
         <v>-2.3620469223913868E-3</v>
       </c>
       <c r="AA10">
-        <f t="shared" ref="AA10:AA19" si="6">O10*(1+T10)</f>
+        <f t="shared" ref="AA10:AA19" si="8">O10*(1+T10)</f>
         <v>1.6680068536987572E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="5">
+        <f t="shared" ref="AB10:AB19" si="9">T10*E10</f>
+        <v>0.29780735999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10.47</v>
       </c>
@@ -1939,7 +3857,7 @@
         <v>3520</v>
       </c>
       <c r="H11">
-        <f>LOG10(G11/G$14)</f>
+        <f t="shared" si="1"/>
         <v>0.90308998699194354</v>
       </c>
       <c r="I11">
@@ -1961,7 +3879,7 @@
         <v>296.28510583707509</v>
       </c>
       <c r="N11">
-        <f>LN(M11/M$14)*-0.026</f>
+        <f t="shared" si="2"/>
         <v>-5.4065480083675725E-2</v>
       </c>
       <c r="O11">
@@ -1972,7 +3890,7 @@
         <v>2.9474299999999998E-4</v>
       </c>
       <c r="S11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3392.7862578585414</v>
       </c>
       <c r="T11" s="4">
@@ -1983,30 +3901,34 @@
         <v>2.9278699999999997E-4</v>
       </c>
       <c r="V11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.1947613237866115E-2</v>
       </c>
       <c r="W11" s="1">
         <v>2.74407E-4</v>
       </c>
       <c r="X11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-9.9782002645706601E-3</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.93722398876999335</v>
       </c>
       <c r="Z11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9461609944354246E-3</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.7346091814788491E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="5">
+        <f t="shared" si="9"/>
+        <v>0.11248607999999981</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10.47</v>
       </c>
@@ -2031,7 +3953,7 @@
         <v>1760</v>
       </c>
       <c r="H12">
-        <f>LOG10(G12/G$14)</f>
+        <f t="shared" si="1"/>
         <v>0.6020599913279624</v>
       </c>
       <c r="I12">
@@ -2053,7 +3975,7 @@
         <v>148.14255291853755</v>
       </c>
       <c r="N12">
-        <f>LN(M12/M$14)*-0.026</f>
+        <f t="shared" si="2"/>
         <v>-3.604365338911715E-2</v>
       </c>
       <c r="O12">
@@ -2064,7 +3986,7 @@
         <v>5.7787500000000005E-4</v>
       </c>
       <c r="S12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1730.4780445598094</v>
       </c>
       <c r="T12" s="4">
@@ -2075,30 +3997,34 @@
         <v>1.4669600000000001E-4</v>
       </c>
       <c r="V12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-9.8608886304843574E-3</v>
       </c>
       <c r="W12" s="1">
         <v>1.3598700000000001E-4</v>
       </c>
       <c r="X12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.9013170376580197E-2</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.92699869117085676</v>
       </c>
       <c r="Z12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-9.0629133667188642E-3</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.7714374331149401E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="5">
+        <f t="shared" si="9"/>
+        <v>3.4120000000000282E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10.47</v>
       </c>
@@ -2123,7 +4049,7 @@
         <v>880</v>
       </c>
       <c r="H13">
-        <f>LOG10(G13/G$14)</f>
+        <f t="shared" si="1"/>
         <v>0.3010299956639812</v>
       </c>
       <c r="I13">
@@ -2145,7 +4071,7 @@
         <v>74.071276459268773</v>
       </c>
       <c r="N13">
-        <f>LN(M13/M$14)*-0.026</f>
+        <f t="shared" si="2"/>
         <v>-1.8021826694558575E-2</v>
       </c>
       <c r="O13">
@@ -2156,7 +4082,7 @@
         <v>1.1429599999999999E-3</v>
       </c>
       <c r="S13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>874.92125708686228</v>
       </c>
       <c r="T13" s="4">
@@ -2167,30 +4093,34 @@
         <v>7.3499799999999997E-5</v>
       </c>
       <c r="V13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-7.7752110790610682E-3</v>
       </c>
       <c r="W13" s="3">
         <v>6.8626699999999998E-5</v>
       </c>
       <c r="X13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-9.6110114576398575E-3</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.93369913931738591</v>
       </c>
       <c r="Z13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.8216367681966352E-3</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.7917213594962005E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="5">
+        <f t="shared" si="9"/>
+        <v>5.8047999999998844E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10.47</v>
       </c>
@@ -2201,7 +4131,7 @@
         <v>10</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14" si="7">(C14/(B14+C14))*A14</f>
+        <f t="shared" ref="D14" si="10">(C14/(B14+C14))*A14</f>
         <v>4.1880000000000006</v>
       </c>
       <c r="E14">
@@ -2214,30 +4144,34 @@
         <v>440</v>
       </c>
       <c r="H14">
-        <f>LOG10(G14/G$14)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" ref="I14" si="8">1/G14</f>
+        <f t="shared" ref="I14" si="11">1/G14</f>
         <v>2.2727272727272726E-3</v>
       </c>
       <c r="J14">
         <v>4.7</v>
       </c>
       <c r="K14">
-        <f t="shared" ref="K14" si="9">2*(2*D14)*(J14/1000)/I14</f>
+        <f t="shared" ref="K14" si="12">2*(2*D14)*(J14/1000)/I14</f>
         <v>34.643136000000005</v>
       </c>
       <c r="L14">
         <v>0.93540000000000001</v>
       </c>
       <c r="M14">
-        <f t="shared" ref="M14" si="10">K14/L14</f>
+        <f t="shared" ref="M14" si="13">K14/L14</f>
         <v>37.035638229634387</v>
       </c>
       <c r="N14">
-        <f>LN(M14/M$14)*-0.026</f>
+        <f t="shared" si="2"/>
         <v>0</v>
+      </c>
+      <c r="O14">
+        <f>N13/E13</f>
+        <v>1.8021826694558575E-2</v>
       </c>
       <c r="P14">
         <f>12/M14*1000</f>
@@ -2247,41 +4181,45 @@
         <v>2.2728499999999999E-3</v>
       </c>
       <c r="S14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>439.97624128297076</v>
       </c>
       <c r="T14" s="4">
-        <f t="shared" ref="T14" si="11">(S14-G14)/S14</f>
+        <f t="shared" ref="T14" si="14">(S14-G14)/S14</f>
         <v>-5.3999999999904941E-5</v>
       </c>
       <c r="U14" s="3">
         <v>3.6825900000000003E-5</v>
       </c>
       <c r="V14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-5.6953999667185944E-3</v>
       </c>
       <c r="W14" s="3">
         <v>3.4721000000000002E-5</v>
       </c>
       <c r="X14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.242562138187154E-3</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.94284185858322533</v>
       </c>
       <c r="Z14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.8930082658908874E-3</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
+        <v>1.8020853515917069E-2</v>
+      </c>
+      <c r="AB14" s="5">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10.47</v>
       </c>
@@ -2306,7 +4244,7 @@
         <v>220</v>
       </c>
       <c r="H15">
-        <f>LOG10(G15/G$14)</f>
+        <f t="shared" si="1"/>
         <v>-0.3010299956639812</v>
       </c>
       <c r="I15">
@@ -2328,7 +4266,7 @@
         <v>18.517819114817193</v>
       </c>
       <c r="N15">
-        <f>LN(M15/M$14)*-0.026</f>
+        <f t="shared" si="2"/>
         <v>1.8021826694558575E-2</v>
       </c>
       <c r="O15">
@@ -2339,7 +4277,7 @@
         <v>4.5335000000000002E-3</v>
       </c>
       <c r="S15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>220.58012573067165</v>
       </c>
       <c r="T15" s="4">
@@ -2350,30 +4288,34 @@
         <v>1.8451E-5</v>
       </c>
       <c r="V15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-3.6214359556225911E-3</v>
       </c>
       <c r="W15" s="3">
         <v>1.7130200000000001E-5</v>
       </c>
       <c r="X15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.1171381536701384E-2</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.92841580402146229</v>
       </c>
       <c r="Z15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-7.5227025954162528E-3</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.8069224098765262E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="5">
+        <f t="shared" si="9"/>
+        <v>2.6299999999999418E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10.47</v>
       </c>
@@ -2398,7 +4340,7 @@
         <v>110</v>
       </c>
       <c r="H16">
-        <f>LOG10(G16/G$14)</f>
+        <f t="shared" si="1"/>
         <v>-0.6020599913279624</v>
       </c>
       <c r="I16">
@@ -2420,7 +4362,7 @@
         <v>9.2589095574085967</v>
       </c>
       <c r="N16">
-        <f>LN(M16/M$14)*-0.026</f>
+        <f t="shared" si="2"/>
         <v>3.604365338911715E-2</v>
       </c>
       <c r="O16">
@@ -2431,7 +4373,7 @@
         <v>9.0630199999999998E-3</v>
       </c>
       <c r="S16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>110.33849643937673</v>
       </c>
       <c r="T16" s="4">
@@ -2442,30 +4384,34 @@
         <v>9.2445999999999995E-6</v>
       </c>
       <c r="V16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.547882808190369E-3</v>
       </c>
       <c r="W16" s="3">
         <v>8.6035199999999996E-6</v>
       </c>
       <c r="X16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-6.6558803838431052E-3</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.93065357073318478</v>
       </c>
       <c r="Z16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.100103213568412E-3</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.8077114054492142E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="5">
+        <f t="shared" si="9"/>
+        <v>6.1356000000001142E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10.47</v>
       </c>
@@ -2490,7 +4436,7 @@
         <v>55</v>
       </c>
       <c r="H17">
-        <f>LOG10(G17/G$14)</f>
+        <f t="shared" si="1"/>
         <v>-0.90308998699194354</v>
       </c>
       <c r="I17">
@@ -2512,7 +4458,7 @@
         <v>4.6294547787042983</v>
       </c>
       <c r="N17">
-        <f>LN(M17/M$14)*-0.026</f>
+        <f t="shared" si="2"/>
         <v>5.4065480083675725E-2</v>
       </c>
       <c r="O17">
@@ -2523,7 +4469,7 @@
         <v>1.81581E-2</v>
       </c>
       <c r="S17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>55.071841216867405</v>
       </c>
       <c r="T17" s="4">
@@ -2534,30 +4480,34 @@
         <v>4.6318700000000001E-6</v>
       </c>
       <c r="V17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.2143546682052266E-4</v>
       </c>
       <c r="W17" s="3">
         <v>4.3283800000000002E-6</v>
       </c>
       <c r="X17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4.6483903908632824E-4</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.93447786747037376</v>
       </c>
       <c r="Z17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-9.8678905271717054E-4</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.8045336167481628E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="5">
+        <f t="shared" si="9"/>
+        <v>3.9135000000000784E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>10.47</v>
       </c>
@@ -2582,7 +4532,7 @@
         <v>27.5</v>
       </c>
       <c r="H18">
-        <f>LOG10(G18/G$14)</f>
+        <f t="shared" si="1"/>
         <v>-1.2041199826559248</v>
       </c>
       <c r="I18">
@@ -2604,18 +4554,18 @@
         <v>2.3147273893521492</v>
       </c>
       <c r="N18">
-        <f>LN(M18/M$14)*-0.026</f>
+        <f t="shared" si="2"/>
         <v>7.20873067782343E-2</v>
       </c>
       <c r="O18">
-        <f t="shared" ref="O18" si="12">N18/E18</f>
+        <f t="shared" ref="O18" si="15">N18/E18</f>
         <v>1.8021826694558575E-2</v>
       </c>
       <c r="R18" s="1">
         <v>3.6464299999999998E-2</v>
       </c>
       <c r="S18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27.42408328145611</v>
       </c>
       <c r="T18" s="4">
@@ -2626,30 +4576,34 @@
         <v>2.3207300000000001E-6</v>
       </c>
       <c r="V18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5865183144316651E-3</v>
       </c>
       <c r="W18" s="3">
         <v>2.1571399999999999E-6</v>
       </c>
       <c r="X18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3.73457448288032E-3</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.92950924924484957</v>
       </c>
       <c r="Z18" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-6.337484817860819E-3</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.7971937772811364E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB18" s="5">
+        <f t="shared" si="9"/>
+        <v>-1.1072999999999942E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10.47</v>
       </c>
@@ -2674,7 +4628,7 @@
         <v>13.75</v>
       </c>
       <c r="H19">
-        <f>LOG10(G19/G$14)</f>
+        <f t="shared" si="1"/>
         <v>-1.505149978319906</v>
       </c>
       <c r="I19">
@@ -2696,7 +4650,7 @@
         <v>1.1573636946760746</v>
       </c>
       <c r="N19">
-        <f>LN(M19/M$14)*-0.026</f>
+        <f t="shared" si="2"/>
         <v>9.0109133472792882E-2</v>
       </c>
       <c r="O19">
@@ -2707,7 +4661,7 @@
         <v>7.3450299999999996E-2</v>
       </c>
       <c r="S19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.614648272369209</v>
       </c>
       <c r="T19" s="4">
@@ -2718,30 +4672,34 @@
         <v>1.1627699999999999E-6</v>
       </c>
       <c r="V19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.6495053397708867E-3</v>
       </c>
       <c r="W19" s="3">
         <v>1.07034E-6</v>
       </c>
       <c r="X19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.1452435674645616E-2</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.92050878505637401</v>
       </c>
       <c r="Z19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.6177156791299961E-2</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.7842660451746286E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="5">
+        <f t="shared" si="9"/>
+        <v>-4.9708124999999499E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
     </row>
   </sheetData>
